--- a/database/industries/folad/faspa/product/monthly_seprated.xlsx
+++ b/database/industries/folad/faspa/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\faspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\faspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A875AC54-295B-4DC8-8930-3841C899C32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905D6803-39E2-4CCB-A84A-E898951DC7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فسپا-گروه‌صنعتی‌سپاهان‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -778,12 +778,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -838,7 +838,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -895,7 +895,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1007,7 +1007,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1176,7 +1176,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1388,7 +1388,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1537,47 +1537,47 @@
       <c r="AF11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>58</v>
+      <c r="AG11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>40</v>
       </c>
       <c r="AI11" s="11">
+        <v>137</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>188</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>904</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>272</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>111</v>
+      </c>
+      <c r="AQ11" s="11">
         <v>1</v>
       </c>
-      <c r="AJ11" s="11">
-        <v>40</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>137</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>188</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AN11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>904</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>272</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>12</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>111</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="11" t="s">
-        <v>58</v>
+      <c r="AR11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>0</v>
       </c>
       <c r="AU11" s="11">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1666,41 +1666,41 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>0</v>
+      </c>
+      <c r="X12" s="13">
+        <v>0</v>
       </c>
       <c r="Y12" s="13">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Z12" s="13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA12" s="13">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="13">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="13">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="AD12" s="13">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AE12" s="13">
-        <v>331</v>
+        <v>3</v>
       </c>
       <c r="AF12" s="13">
-        <v>112</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI12" s="13" t="s">
         <v>58</v>
@@ -1726,14 +1726,14 @@
       <c r="AP12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>0</v>
+      <c r="AQ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT12" s="13" t="s">
         <v>58</v>
@@ -1763,7 +1763,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1825,41 +1825,41 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>0</v>
+      </c>
+      <c r="X13" s="11">
+        <v>0</v>
       </c>
       <c r="Y13" s="11">
         <v>0</v>
       </c>
       <c r="Z13" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA13" s="11">
         <v>0</v>
       </c>
       <c r="AB13" s="11">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="AC13" s="11">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AD13" s="11">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="11">
-        <v>94</v>
+        <v>736</v>
       </c>
       <c r="AF13" s="11">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>736</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI13" s="11" t="s">
         <v>58</v>
@@ -1885,14 +1885,14 @@
       <c r="AP13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>0</v>
+      <c r="AQ13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT13" s="11" t="s">
         <v>58</v>
@@ -1922,7 +1922,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1984,75 +1984,75 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>15231</v>
+      </c>
+      <c r="X14" s="13">
+        <v>5783</v>
       </c>
       <c r="Y14" s="13">
-        <v>15231</v>
+        <v>10833</v>
       </c>
       <c r="Z14" s="13">
-        <v>5783</v>
+        <v>9463</v>
       </c>
       <c r="AA14" s="13">
-        <v>10833</v>
+        <v>4880</v>
       </c>
       <c r="AB14" s="13">
-        <v>9463</v>
+        <v>4200</v>
       </c>
       <c r="AC14" s="13">
-        <v>4880</v>
+        <v>5170</v>
       </c>
       <c r="AD14" s="13">
-        <v>4200</v>
+        <v>6469</v>
       </c>
       <c r="AE14" s="13">
-        <v>5170</v>
+        <v>10957</v>
       </c>
       <c r="AF14" s="13">
-        <v>6469</v>
+        <v>7865</v>
       </c>
       <c r="AG14" s="13">
-        <v>10957</v>
+        <v>9455</v>
       </c>
       <c r="AH14" s="13">
-        <v>7865</v>
+        <v>9436</v>
       </c>
       <c r="AI14" s="13">
-        <v>9455</v>
+        <v>4814</v>
       </c>
       <c r="AJ14" s="13">
-        <v>9436</v>
+        <v>7236</v>
       </c>
       <c r="AK14" s="13">
-        <v>4814</v>
+        <v>10755</v>
       </c>
       <c r="AL14" s="13">
-        <v>7236</v>
+        <v>8783</v>
       </c>
       <c r="AM14" s="13">
-        <v>10755</v>
+        <v>9193</v>
       </c>
       <c r="AN14" s="13">
-        <v>8783</v>
+        <v>8341</v>
       </c>
       <c r="AO14" s="13">
-        <v>9193</v>
+        <v>7826</v>
       </c>
       <c r="AP14" s="13">
-        <v>8341</v>
+        <v>10471</v>
       </c>
       <c r="AQ14" s="13">
-        <v>7826</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>10471</v>
-      </c>
-      <c r="AS14" s="13">
         <v>9638</v>
       </c>
+      <c r="AR14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS14" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT14" s="13" t="s">
         <v>58</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2206,41 +2206,41 @@
       <c r="AQ15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS15" s="11" t="s">
-        <v>58</v>
+      <c r="AR15" s="11">
+        <v>6916</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>12546</v>
       </c>
       <c r="AT15" s="11">
-        <v>6916</v>
+        <v>15100</v>
       </c>
       <c r="AU15" s="11">
-        <v>12537</v>
+        <v>11325</v>
       </c>
       <c r="AV15" s="11">
-        <v>15100</v>
+        <v>11371</v>
       </c>
       <c r="AW15" s="11">
-        <v>11325</v>
+        <v>14842</v>
       </c>
       <c r="AX15" s="11">
-        <v>11371</v>
+        <v>12105</v>
       </c>
       <c r="AY15" s="11">
-        <v>14842</v>
+        <v>11003</v>
       </c>
       <c r="AZ15" s="11">
-        <v>12105</v>
+        <v>13219</v>
       </c>
       <c r="BA15" s="11">
-        <v>11003</v>
+        <v>12355</v>
       </c>
       <c r="BB15" s="11">
-        <v>13219</v>
+        <v>8719</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2362,14 +2362,14 @@
       <c r="AP16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>0</v>
+      <c r="AQ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT16" s="13" t="s">
         <v>58</v>
@@ -2399,7 +2399,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>65</v>
       </c>
@@ -2524,23 +2524,23 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>48</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>0</v>
       </c>
       <c r="AT17" s="11">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AU17" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV17" s="11">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="11">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>66</v>
       </c>
@@ -2619,103 +2619,103 @@
         <v>0</v>
       </c>
       <c r="W18" s="15">
-        <v>0</v>
+        <v>15231</v>
       </c>
       <c r="X18" s="15">
-        <v>0</v>
+        <v>5783</v>
       </c>
       <c r="Y18" s="15">
-        <v>15231</v>
+        <v>10913</v>
       </c>
       <c r="Z18" s="15">
-        <v>5783</v>
+        <v>9494</v>
       </c>
       <c r="AA18" s="15">
-        <v>10913</v>
+        <v>4881</v>
       </c>
       <c r="AB18" s="15">
-        <v>9494</v>
+        <v>4335</v>
       </c>
       <c r="AC18" s="15">
-        <v>4881</v>
+        <v>5595</v>
       </c>
       <c r="AD18" s="15">
-        <v>4335</v>
+        <v>6582</v>
       </c>
       <c r="AE18" s="15">
-        <v>5595</v>
+        <v>11696</v>
       </c>
       <c r="AF18" s="15">
-        <v>6582</v>
+        <v>7865</v>
       </c>
       <c r="AG18" s="15">
-        <v>11696</v>
+        <v>9456</v>
       </c>
       <c r="AH18" s="15">
-        <v>7865</v>
+        <v>9476</v>
       </c>
       <c r="AI18" s="15">
-        <v>9456</v>
+        <v>4951</v>
       </c>
       <c r="AJ18" s="15">
-        <v>9476</v>
+        <v>7424</v>
       </c>
       <c r="AK18" s="15">
-        <v>4951</v>
+        <v>10757</v>
       </c>
       <c r="AL18" s="15">
-        <v>7424</v>
+        <v>8783</v>
       </c>
       <c r="AM18" s="15">
-        <v>10757</v>
+        <v>10097</v>
       </c>
       <c r="AN18" s="15">
-        <v>8783</v>
+        <v>8613</v>
       </c>
       <c r="AO18" s="15">
-        <v>10097</v>
+        <v>7838</v>
       </c>
       <c r="AP18" s="15">
-        <v>8613</v>
+        <v>10582</v>
       </c>
       <c r="AQ18" s="15">
-        <v>7838</v>
+        <v>9639</v>
       </c>
       <c r="AR18" s="15">
-        <v>10582</v>
+        <v>6964</v>
       </c>
       <c r="AS18" s="15">
-        <v>9639</v>
+        <v>12546</v>
       </c>
       <c r="AT18" s="15">
-        <v>6964</v>
+        <v>15153</v>
       </c>
       <c r="AU18" s="15">
-        <v>12537</v>
+        <v>11327</v>
       </c>
       <c r="AV18" s="15">
-        <v>15153</v>
+        <v>11371</v>
       </c>
       <c r="AW18" s="15">
-        <v>11327</v>
+        <v>14842</v>
       </c>
       <c r="AX18" s="15">
-        <v>11371</v>
+        <v>12105</v>
       </c>
       <c r="AY18" s="15">
-        <v>14842</v>
+        <v>11003</v>
       </c>
       <c r="AZ18" s="15">
-        <v>12105</v>
+        <v>13219</v>
       </c>
       <c r="BA18" s="15">
-        <v>11003</v>
+        <v>12355</v>
       </c>
       <c r="BB18" s="15">
-        <v>13219</v>
+        <v>8719</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>67</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>59</v>
       </c>
@@ -2834,11 +2834,11 @@
       <c r="V20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="11" t="s">
-        <v>58</v>
+      <c r="W20" s="11">
+        <v>0</v>
+      </c>
+      <c r="X20" s="11">
+        <v>0</v>
       </c>
       <c r="Y20" s="11">
         <v>0</v>
@@ -2861,11 +2861,11 @@
       <c r="AE20" s="11">
         <v>0</v>
       </c>
-      <c r="AF20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="11">
-        <v>0</v>
+      <c r="AF20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH20" s="11" t="s">
         <v>58</v>
@@ -2931,7 +2931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>61</v>
       </c>
@@ -2993,11 +2993,11 @@
       <c r="V21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>58</v>
+      <c r="W21" s="13">
+        <v>0</v>
+      </c>
+      <c r="X21" s="13">
+        <v>0</v>
       </c>
       <c r="Y21" s="13">
         <v>0</v>
@@ -3023,11 +3023,11 @@
       <c r="AF21" s="13">
         <v>0</v>
       </c>
-      <c r="AG21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="13">
-        <v>0</v>
+      <c r="AG21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI21" s="13" t="s">
         <v>58</v>
@@ -3053,14 +3053,14 @@
       <c r="AP21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="13">
-        <v>0</v>
+      <c r="AQ21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT21" s="13" t="s">
         <v>58</v>
@@ -3090,7 +3090,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>68</v>
       </c>
@@ -3179,14 +3179,14 @@
       <c r="AE22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF22" s="11" t="s">
-        <v>58</v>
+      <c r="AF22" s="11">
+        <v>0</v>
       </c>
       <c r="AG22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH22" s="11">
-        <v>0</v>
+      <c r="AH22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI22" s="11" t="s">
         <v>58</v>
@@ -3249,7 +3249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>69</v>
       </c>
@@ -3374,11 +3374,11 @@
       <c r="AQ23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS23" s="13" t="s">
-        <v>58</v>
+      <c r="AR23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="13">
+        <v>0</v>
       </c>
       <c r="AT23" s="13">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>65</v>
       </c>
@@ -3530,14 +3530,14 @@
       <c r="AP24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="11">
-        <v>0</v>
+      <c r="AQ24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT24" s="11" t="s">
         <v>58</v>
@@ -3567,7 +3567,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>70</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>71</v>
       </c>
@@ -3781,7 +3781,7 @@
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>72</v>
       </c>
@@ -3843,104 +3843,104 @@
       <c r="V27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>58</v>
+      <c r="W27" s="11">
+        <v>1110</v>
+      </c>
+      <c r="X27" s="11">
+        <v>1446</v>
       </c>
       <c r="Y27" s="11">
-        <v>1110</v>
+        <v>1285</v>
       </c>
       <c r="Z27" s="11">
-        <v>1446</v>
+        <v>785</v>
       </c>
       <c r="AA27" s="11">
-        <v>1285</v>
+        <v>827</v>
       </c>
       <c r="AB27" s="11">
-        <v>785</v>
+        <v>997</v>
       </c>
       <c r="AC27" s="11">
-        <v>827</v>
+        <v>1156</v>
       </c>
       <c r="AD27" s="11">
-        <v>997</v>
+        <v>1640</v>
       </c>
       <c r="AE27" s="11">
-        <v>1156</v>
+        <v>724</v>
       </c>
       <c r="AF27" s="11">
-        <v>1640</v>
+        <v>1079</v>
       </c>
       <c r="AG27" s="11">
-        <v>724</v>
+        <v>1469</v>
       </c>
       <c r="AH27" s="11">
-        <v>1079</v>
+        <v>1032</v>
       </c>
       <c r="AI27" s="11">
-        <v>1469</v>
+        <v>1835</v>
       </c>
       <c r="AJ27" s="11">
-        <v>1032</v>
+        <v>1189</v>
       </c>
       <c r="AK27" s="11">
-        <v>1835</v>
+        <v>545</v>
       </c>
       <c r="AL27" s="11">
-        <v>1189</v>
+        <v>1001</v>
       </c>
       <c r="AM27" s="11">
-        <v>545</v>
+        <v>2138</v>
       </c>
       <c r="AN27" s="11">
-        <v>1001</v>
+        <v>1429</v>
       </c>
       <c r="AO27" s="11">
-        <v>2138</v>
+        <v>1420</v>
       </c>
       <c r="AP27" s="11">
-        <v>1429</v>
+        <v>1030</v>
       </c>
       <c r="AQ27" s="11">
-        <v>1420</v>
+        <v>1943</v>
       </c>
       <c r="AR27" s="11">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="AS27" s="11">
-        <v>1943</v>
+        <v>2202</v>
       </c>
       <c r="AT27" s="11">
-        <v>1054</v>
+        <v>1965</v>
       </c>
       <c r="AU27" s="11">
-        <v>2214</v>
+        <v>1061</v>
       </c>
       <c r="AV27" s="11">
-        <v>1965</v>
+        <v>1925</v>
       </c>
       <c r="AW27" s="11">
-        <v>1061</v>
+        <v>0</v>
       </c>
       <c r="AX27" s="11">
-        <v>1925</v>
+        <v>1273</v>
       </c>
       <c r="AY27" s="11">
-        <v>0</v>
+        <v>2793</v>
       </c>
       <c r="AZ27" s="11">
-        <v>1273</v>
+        <v>1068</v>
       </c>
       <c r="BA27" s="11">
-        <v>2793</v>
+        <v>1585</v>
       </c>
       <c r="BB27" s="11">
-        <v>1068</v>
+        <v>2567</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>73</v>
       </c>
@@ -4000,11 +4000,11 @@
       <c r="V28" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="15" t="s">
-        <v>58</v>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+      <c r="X28" s="15">
+        <v>0</v>
       </c>
       <c r="Y28" s="15">
         <v>0</v>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>74</v>
       </c>
@@ -4158,103 +4158,103 @@
         <v>0</v>
       </c>
       <c r="W29" s="17">
-        <v>0</v>
+        <v>16341</v>
       </c>
       <c r="X29" s="17">
-        <v>0</v>
+        <v>7229</v>
       </c>
       <c r="Y29" s="17">
-        <v>16341</v>
+        <v>12198</v>
       </c>
       <c r="Z29" s="17">
-        <v>7229</v>
+        <v>10279</v>
       </c>
       <c r="AA29" s="17">
-        <v>12198</v>
+        <v>5708</v>
       </c>
       <c r="AB29" s="17">
-        <v>10279</v>
+        <v>5332</v>
       </c>
       <c r="AC29" s="17">
-        <v>5708</v>
+        <v>6751</v>
       </c>
       <c r="AD29" s="17">
-        <v>5332</v>
+        <v>8222</v>
       </c>
       <c r="AE29" s="17">
-        <v>6751</v>
+        <v>12420</v>
       </c>
       <c r="AF29" s="17">
-        <v>8222</v>
+        <v>8944</v>
       </c>
       <c r="AG29" s="17">
-        <v>12420</v>
+        <v>10925</v>
       </c>
       <c r="AH29" s="17">
-        <v>8944</v>
+        <v>10508</v>
       </c>
       <c r="AI29" s="17">
-        <v>10925</v>
+        <v>6786</v>
       </c>
       <c r="AJ29" s="17">
-        <v>10508</v>
+        <v>8613</v>
       </c>
       <c r="AK29" s="17">
-        <v>6786</v>
+        <v>11302</v>
       </c>
       <c r="AL29" s="17">
-        <v>8613</v>
+        <v>9784</v>
       </c>
       <c r="AM29" s="17">
-        <v>11302</v>
+        <v>12235</v>
       </c>
       <c r="AN29" s="17">
-        <v>9784</v>
+        <v>10042</v>
       </c>
       <c r="AO29" s="17">
-        <v>12235</v>
+        <v>9258</v>
       </c>
       <c r="AP29" s="17">
-        <v>10042</v>
+        <v>11612</v>
       </c>
       <c r="AQ29" s="17">
-        <v>9258</v>
+        <v>11582</v>
       </c>
       <c r="AR29" s="17">
-        <v>10582</v>
+        <v>8018</v>
       </c>
       <c r="AS29" s="17">
-        <v>11582</v>
+        <v>14748</v>
       </c>
       <c r="AT29" s="17">
-        <v>8018</v>
+        <v>17118</v>
       </c>
       <c r="AU29" s="17">
-        <v>14751</v>
+        <v>12388</v>
       </c>
       <c r="AV29" s="17">
-        <v>17118</v>
+        <v>13296</v>
       </c>
       <c r="AW29" s="17">
-        <v>12388</v>
+        <v>14842</v>
       </c>
       <c r="AX29" s="17">
-        <v>13296</v>
+        <v>13378</v>
       </c>
       <c r="AY29" s="17">
-        <v>14842</v>
+        <v>13796</v>
       </c>
       <c r="AZ29" s="17">
-        <v>13378</v>
+        <v>14287</v>
       </c>
       <c r="BA29" s="17">
-        <v>13796</v>
+        <v>13940</v>
       </c>
       <c r="BB29" s="17">
-        <v>14287</v>
+        <v>11286</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4309,7 +4309,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4364,7 +4364,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4419,7 +4419,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>75</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4631,7 +4631,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>76</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>56</v>
       </c>
@@ -4780,47 +4780,47 @@
       <c r="AF36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH36" s="11" t="s">
-        <v>58</v>
+      <c r="AG36" s="11">
+        <v>904</v>
+      </c>
+      <c r="AH36" s="11">
+        <v>616</v>
       </c>
       <c r="AI36" s="11">
-        <v>904</v>
+        <v>1186</v>
       </c>
       <c r="AJ36" s="11">
-        <v>616</v>
+        <v>1449</v>
       </c>
       <c r="AK36" s="11">
-        <v>1186</v>
+        <v>364</v>
       </c>
       <c r="AL36" s="11">
-        <v>1449</v>
+        <v>1024</v>
       </c>
       <c r="AM36" s="11">
-        <v>364</v>
+        <v>1392</v>
       </c>
       <c r="AN36" s="11">
-        <v>1024</v>
+        <v>2183</v>
       </c>
       <c r="AO36" s="11">
-        <v>1392</v>
+        <v>779</v>
       </c>
       <c r="AP36" s="11">
-        <v>2183</v>
+        <v>1232</v>
       </c>
       <c r="AQ36" s="11">
-        <v>779</v>
-      </c>
-      <c r="AR36" s="11">
-        <v>1232</v>
-      </c>
-      <c r="AS36" s="11">
         <v>422</v>
       </c>
-      <c r="AT36" s="11" t="s">
-        <v>58</v>
+      <c r="AR36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT36" s="11">
+        <v>0</v>
       </c>
       <c r="AU36" s="11">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>59</v>
       </c>
@@ -4909,42 +4909,42 @@
       <c r="V37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="13" t="s">
-        <v>58</v>
+      <c r="W37" s="13">
+        <v>0</v>
+      </c>
+      <c r="X37" s="13">
+        <v>0</v>
       </c>
       <c r="Y37" s="13">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="Z37" s="13">
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="AA37" s="13">
-        <v>117</v>
+        <v>766</v>
       </c>
       <c r="AB37" s="13">
-        <v>936</v>
+        <v>910</v>
       </c>
       <c r="AC37" s="13">
-        <v>766</v>
+        <v>423</v>
       </c>
       <c r="AD37" s="13">
-        <v>910</v>
+        <v>730</v>
       </c>
       <c r="AE37" s="13">
-        <v>423</v>
+        <v>716</v>
       </c>
       <c r="AF37" s="13">
-        <v>730</v>
-      </c>
-      <c r="AG37" s="13">
-        <v>716</v>
-      </c>
-      <c r="AH37" s="13">
         <v>652</v>
       </c>
+      <c r="AG37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH37" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI37" s="13" t="s">
         <v>58</v>
       </c>
@@ -4969,14 +4969,14 @@
       <c r="AP37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS37" s="13">
-        <v>0</v>
+      <c r="AQ37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS37" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT37" s="13" t="s">
         <v>58</v>
@@ -5006,7 +5006,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>60</v>
       </c>
@@ -5068,41 +5068,41 @@
       <c r="V38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X38" s="11" t="s">
-        <v>58</v>
+      <c r="W38" s="11">
+        <v>14</v>
+      </c>
+      <c r="X38" s="11">
+        <v>0</v>
       </c>
       <c r="Y38" s="11">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA38" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="11">
+        <v>105</v>
+      </c>
+      <c r="AC38" s="11">
+        <v>105</v>
+      </c>
+      <c r="AD38" s="11">
+        <v>28</v>
+      </c>
+      <c r="AE38" s="11">
+        <v>752</v>
+      </c>
+      <c r="AF38" s="11">
         <v>2</v>
       </c>
-      <c r="AC38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="11">
-        <v>105</v>
-      </c>
-      <c r="AE38" s="11">
-        <v>105</v>
-      </c>
-      <c r="AF38" s="11">
-        <v>28</v>
-      </c>
-      <c r="AG38" s="11">
-        <v>752</v>
-      </c>
-      <c r="AH38" s="11">
-        <v>2</v>
+      <c r="AG38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI38" s="11" t="s">
         <v>58</v>
@@ -5128,14 +5128,14 @@
       <c r="AP38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="11">
-        <v>0</v>
+      <c r="AQ38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT38" s="11" t="s">
         <v>58</v>
@@ -5165,7 +5165,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>61</v>
       </c>
@@ -5227,75 +5227,75 @@
       <c r="V39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="13" t="s">
-        <v>58</v>
+      <c r="W39" s="13">
+        <v>15036</v>
+      </c>
+      <c r="X39" s="13">
+        <v>8110</v>
       </c>
       <c r="Y39" s="13">
-        <v>15036</v>
+        <v>8446</v>
       </c>
       <c r="Z39" s="13">
-        <v>8110</v>
+        <v>10913</v>
       </c>
       <c r="AA39" s="13">
-        <v>8446</v>
+        <v>5321</v>
       </c>
       <c r="AB39" s="13">
-        <v>10913</v>
+        <v>6559</v>
       </c>
       <c r="AC39" s="13">
-        <v>5321</v>
+        <v>4527</v>
       </c>
       <c r="AD39" s="13">
-        <v>6559</v>
+        <v>4715</v>
       </c>
       <c r="AE39" s="13">
-        <v>4527</v>
+        <v>7153</v>
       </c>
       <c r="AF39" s="13">
-        <v>4715</v>
+        <v>4147</v>
       </c>
       <c r="AG39" s="13">
-        <v>7153</v>
+        <v>6152</v>
       </c>
       <c r="AH39" s="13">
-        <v>4147</v>
+        <v>8241</v>
       </c>
       <c r="AI39" s="13">
-        <v>6152</v>
+        <v>9635</v>
       </c>
       <c r="AJ39" s="13">
-        <v>8241</v>
+        <v>8783</v>
       </c>
       <c r="AK39" s="13">
-        <v>9635</v>
+        <v>7609</v>
       </c>
       <c r="AL39" s="13">
-        <v>8783</v>
+        <v>8167</v>
       </c>
       <c r="AM39" s="13">
-        <v>7609</v>
+        <v>10271</v>
       </c>
       <c r="AN39" s="13">
-        <v>8167</v>
+        <v>13374</v>
       </c>
       <c r="AO39" s="13">
-        <v>10271</v>
+        <v>10131</v>
       </c>
       <c r="AP39" s="13">
-        <v>13374</v>
+        <v>10171</v>
       </c>
       <c r="AQ39" s="13">
-        <v>10131</v>
-      </c>
-      <c r="AR39" s="13">
-        <v>10171</v>
-      </c>
-      <c r="AS39" s="13">
         <v>15378</v>
       </c>
+      <c r="AR39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS39" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT39" s="13" t="s">
         <v>58</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>62</v>
       </c>
@@ -5449,41 +5449,41 @@
       <c r="AQ40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS40" s="11" t="s">
-        <v>58</v>
+      <c r="AR40" s="11">
+        <v>3305</v>
+      </c>
+      <c r="AS40" s="11">
+        <v>9155</v>
       </c>
       <c r="AT40" s="11">
-        <v>2992</v>
+        <v>11879</v>
       </c>
       <c r="AU40" s="11">
-        <v>9155</v>
+        <v>11243</v>
       </c>
       <c r="AV40" s="11">
-        <v>11879</v>
+        <v>10726</v>
       </c>
       <c r="AW40" s="11">
-        <v>11243</v>
+        <v>14693</v>
       </c>
       <c r="AX40" s="11">
-        <v>10726</v>
+        <v>9840</v>
       </c>
       <c r="AY40" s="11">
-        <v>14693</v>
+        <v>12738</v>
       </c>
       <c r="AZ40" s="11">
-        <v>9840</v>
+        <v>10342</v>
       </c>
       <c r="BA40" s="11">
-        <v>12738</v>
+        <v>10057</v>
       </c>
       <c r="BB40" s="11">
-        <v>10342</v>
+        <v>11193</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>63</v>
       </c>
@@ -5605,14 +5605,14 @@
       <c r="AP41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ41" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS41" s="13">
-        <v>0</v>
+      <c r="AQ41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS41" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT41" s="13" t="s">
         <v>58</v>
@@ -5642,7 +5642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>65</v>
       </c>
@@ -5767,41 +5767,41 @@
       <c r="AQ42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS42" s="11" t="s">
-        <v>58</v>
+      <c r="AR42" s="11">
+        <v>17</v>
+      </c>
+      <c r="AS42" s="11">
+        <v>11</v>
       </c>
       <c r="AT42" s="11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AU42" s="11">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="AV42" s="11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW42" s="11">
-        <v>168</v>
+        <v>348</v>
       </c>
       <c r="AX42" s="11">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AY42" s="11">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="11">
         <v>0</v>
       </c>
       <c r="BA42" s="11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BB42" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>77</v>
       </c>
@@ -5862,103 +5862,103 @@
         <v>0</v>
       </c>
       <c r="W43" s="15">
-        <v>0</v>
+        <v>15050</v>
       </c>
       <c r="X43" s="15">
-        <v>0</v>
+        <v>8110</v>
       </c>
       <c r="Y43" s="15">
-        <v>15050</v>
+        <v>8564</v>
       </c>
       <c r="Z43" s="15">
-        <v>8110</v>
+        <v>11851</v>
       </c>
       <c r="AA43" s="15">
-        <v>8564</v>
+        <v>6087</v>
       </c>
       <c r="AB43" s="15">
-        <v>11851</v>
+        <v>7574</v>
       </c>
       <c r="AC43" s="15">
-        <v>6087</v>
+        <v>5055</v>
       </c>
       <c r="AD43" s="15">
-        <v>7574</v>
+        <v>5473</v>
       </c>
       <c r="AE43" s="15">
-        <v>5055</v>
+        <v>8621</v>
       </c>
       <c r="AF43" s="15">
-        <v>5473</v>
+        <v>4801</v>
       </c>
       <c r="AG43" s="15">
-        <v>8621</v>
+        <v>7056</v>
       </c>
       <c r="AH43" s="15">
-        <v>4801</v>
+        <v>8857</v>
       </c>
       <c r="AI43" s="15">
-        <v>7056</v>
+        <v>10821</v>
       </c>
       <c r="AJ43" s="15">
-        <v>8857</v>
+        <v>10232</v>
       </c>
       <c r="AK43" s="15">
-        <v>10821</v>
+        <v>7973</v>
       </c>
       <c r="AL43" s="15">
-        <v>10232</v>
+        <v>9191</v>
       </c>
       <c r="AM43" s="15">
-        <v>7973</v>
+        <v>11663</v>
       </c>
       <c r="AN43" s="15">
-        <v>9191</v>
+        <v>15557</v>
       </c>
       <c r="AO43" s="15">
-        <v>11663</v>
+        <v>10910</v>
       </c>
       <c r="AP43" s="15">
-        <v>15557</v>
+        <v>11403</v>
       </c>
       <c r="AQ43" s="15">
-        <v>10910</v>
+        <v>15800</v>
       </c>
       <c r="AR43" s="15">
-        <v>11403</v>
+        <v>3322</v>
       </c>
       <c r="AS43" s="15">
-        <v>15800</v>
+        <v>9166</v>
       </c>
       <c r="AT43" s="15">
-        <v>3009</v>
+        <v>11900</v>
       </c>
       <c r="AU43" s="15">
-        <v>9166</v>
+        <v>11411</v>
       </c>
       <c r="AV43" s="15">
-        <v>11900</v>
+        <v>10750</v>
       </c>
       <c r="AW43" s="15">
-        <v>11411</v>
+        <v>15041</v>
       </c>
       <c r="AX43" s="15">
-        <v>10750</v>
+        <v>9840</v>
       </c>
       <c r="AY43" s="15">
-        <v>15041</v>
+        <v>12738</v>
       </c>
       <c r="AZ43" s="15">
-        <v>9840</v>
+        <v>10342</v>
       </c>
       <c r="BA43" s="15">
-        <v>12738</v>
+        <v>10080</v>
       </c>
       <c r="BB43" s="15">
-        <v>10342</v>
+        <v>11193</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>78</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>59</v>
       </c>
@@ -6077,20 +6077,20 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>461</v>
+      </c>
+      <c r="X45" s="11">
+        <v>738</v>
       </c>
       <c r="Y45" s="11">
-        <v>461</v>
+        <v>221</v>
       </c>
       <c r="Z45" s="11">
-        <v>738</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="11">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="11">
         <v>0</v>
@@ -6104,11 +6104,11 @@
       <c r="AE45" s="11">
         <v>0</v>
       </c>
-      <c r="AF45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="11">
-        <v>0</v>
+      <c r="AF45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH45" s="11" t="s">
         <v>58</v>
@@ -6174,7 +6174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>61</v>
       </c>
@@ -6236,42 +6236,42 @@
       <c r="V46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>58</v>
+      <c r="W46" s="13">
+        <v>911</v>
+      </c>
+      <c r="X46" s="13">
+        <v>769</v>
       </c>
       <c r="Y46" s="13">
-        <v>911</v>
+        <v>387</v>
       </c>
       <c r="Z46" s="13">
-        <v>769</v>
+        <v>59</v>
       </c>
       <c r="AA46" s="13">
-        <v>387</v>
+        <v>40</v>
       </c>
       <c r="AB46" s="13">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="AC46" s="13">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="13">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="AE46" s="13">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AF46" s="13">
-        <v>25</v>
-      </c>
-      <c r="AG46" s="13">
-        <v>157</v>
-      </c>
-      <c r="AH46" s="13">
         <v>92</v>
       </c>
+      <c r="AG46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH46" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI46" s="13" t="s">
         <v>58</v>
       </c>
@@ -6296,14 +6296,14 @@
       <c r="AP46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS46" s="13">
-        <v>0</v>
+      <c r="AQ46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT46" s="13" t="s">
         <v>58</v>
@@ -6333,7 +6333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -6422,14 +6422,14 @@
       <c r="AE47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF47" s="11" t="s">
-        <v>58</v>
+      <c r="AF47" s="11">
+        <v>0</v>
       </c>
       <c r="AG47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH47" s="11">
-        <v>0</v>
+      <c r="AH47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI47" s="11" t="s">
         <v>58</v>
@@ -6492,7 +6492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>69</v>
       </c>
@@ -6617,41 +6617,41 @@
       <c r="AQ48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS48" s="13" t="s">
-        <v>58</v>
+      <c r="AR48" s="13">
+        <v>451</v>
+      </c>
+      <c r="AS48" s="13">
+        <v>777</v>
       </c>
       <c r="AT48" s="13">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="AU48" s="13">
-        <v>777</v>
+        <v>985</v>
       </c>
       <c r="AV48" s="13">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="AW48" s="13">
-        <v>985</v>
+        <v>952</v>
       </c>
       <c r="AX48" s="13">
-        <v>468</v>
+        <v>1338</v>
       </c>
       <c r="AY48" s="13">
-        <v>952</v>
+        <v>788</v>
       </c>
       <c r="AZ48" s="13">
-        <v>1338</v>
+        <v>1227</v>
       </c>
       <c r="BA48" s="13">
-        <v>788</v>
+        <v>691</v>
       </c>
       <c r="BB48" s="13">
-        <v>1227</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>65</v>
       </c>
@@ -6773,14 +6773,14 @@
       <c r="AP49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS49" s="11">
-        <v>0</v>
+      <c r="AQ49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT49" s="11" t="s">
         <v>58</v>
@@ -6810,7 +6810,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>79</v>
       </c>
@@ -6871,40 +6871,40 @@
         <v>0</v>
       </c>
       <c r="W50" s="15">
-        <v>0</v>
+        <v>1372</v>
       </c>
       <c r="X50" s="15">
-        <v>0</v>
+        <v>1507</v>
       </c>
       <c r="Y50" s="15">
-        <v>1372</v>
+        <v>608</v>
       </c>
       <c r="Z50" s="15">
-        <v>1507</v>
+        <v>59</v>
       </c>
       <c r="AA50" s="15">
-        <v>608</v>
+        <v>40</v>
       </c>
       <c r="AB50" s="15">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="AC50" s="15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="15">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="AE50" s="15">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AF50" s="15">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="AG50" s="15">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="15">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="15">
         <v>0</v>
@@ -6934,40 +6934,40 @@
         <v>0</v>
       </c>
       <c r="AR50" s="15">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="AS50" s="15">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="AT50" s="15">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="AU50" s="15">
-        <v>777</v>
+        <v>985</v>
       </c>
       <c r="AV50" s="15">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="AW50" s="15">
-        <v>985</v>
+        <v>952</v>
       </c>
       <c r="AX50" s="15">
-        <v>468</v>
+        <v>1338</v>
       </c>
       <c r="AY50" s="15">
-        <v>952</v>
+        <v>788</v>
       </c>
       <c r="AZ50" s="15">
-        <v>1338</v>
+        <v>1227</v>
       </c>
       <c r="BA50" s="15">
-        <v>788</v>
+        <v>691</v>
       </c>
       <c r="BB50" s="15">
-        <v>1227</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>71</v>
       </c>
@@ -7024,7 +7024,7 @@
       <c r="BA51" s="9"/>
       <c r="BB51" s="9"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>72</v>
       </c>
@@ -7086,104 +7086,104 @@
       <c r="V52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X52" s="11" t="s">
-        <v>58</v>
+      <c r="W52" s="11">
+        <v>1040</v>
+      </c>
+      <c r="X52" s="11">
+        <v>1588</v>
       </c>
       <c r="Y52" s="11">
-        <v>1040</v>
+        <v>1281</v>
       </c>
       <c r="Z52" s="11">
-        <v>1588</v>
+        <v>677</v>
       </c>
       <c r="AA52" s="11">
-        <v>1281</v>
+        <v>936</v>
       </c>
       <c r="AB52" s="11">
-        <v>677</v>
+        <v>785</v>
       </c>
       <c r="AC52" s="11">
-        <v>936</v>
+        <v>1049</v>
       </c>
       <c r="AD52" s="11">
-        <v>785</v>
+        <v>1710</v>
       </c>
       <c r="AE52" s="11">
         <v>1049</v>
       </c>
       <c r="AF52" s="11">
-        <v>1710</v>
+        <v>821</v>
       </c>
       <c r="AG52" s="11">
-        <v>1049</v>
+        <v>1420</v>
       </c>
       <c r="AH52" s="11">
-        <v>821</v>
+        <v>1181</v>
       </c>
       <c r="AI52" s="11">
-        <v>1420</v>
+        <v>1897</v>
       </c>
       <c r="AJ52" s="11">
-        <v>1181</v>
+        <v>1222</v>
       </c>
       <c r="AK52" s="11">
-        <v>1897</v>
+        <v>628</v>
       </c>
       <c r="AL52" s="11">
-        <v>1222</v>
+        <v>1002</v>
       </c>
       <c r="AM52" s="11">
-        <v>628</v>
+        <v>1762</v>
       </c>
       <c r="AN52" s="11">
-        <v>1002</v>
+        <v>1754</v>
       </c>
       <c r="AO52" s="11">
-        <v>1762</v>
+        <v>1283</v>
       </c>
       <c r="AP52" s="11">
-        <v>1754</v>
+        <v>1064</v>
       </c>
       <c r="AQ52" s="11">
-        <v>1283</v>
+        <v>1971</v>
       </c>
       <c r="AR52" s="11">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="AS52" s="11">
-        <v>1971</v>
+        <v>2119</v>
       </c>
       <c r="AT52" s="11">
-        <v>594</v>
+        <v>1715</v>
       </c>
       <c r="AU52" s="11">
-        <v>2119</v>
+        <v>1676</v>
       </c>
       <c r="AV52" s="11">
-        <v>1715</v>
+        <v>1533</v>
       </c>
       <c r="AW52" s="11">
-        <v>1623</v>
+        <v>1361</v>
       </c>
       <c r="AX52" s="11">
-        <v>1533</v>
+        <v>1444</v>
       </c>
       <c r="AY52" s="11">
-        <v>1361</v>
+        <v>2148</v>
       </c>
       <c r="AZ52" s="11">
-        <v>1444</v>
+        <v>1248</v>
       </c>
       <c r="BA52" s="11">
-        <v>2148</v>
+        <v>1646</v>
       </c>
       <c r="BB52" s="11">
-        <v>1248</v>
+        <v>1778</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>73</v>
       </c>
@@ -7243,104 +7243,104 @@
       <c r="V53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="15" t="s">
-        <v>58</v>
+      <c r="W53" s="15">
+        <v>1040</v>
+      </c>
+      <c r="X53" s="15">
+        <v>1588</v>
       </c>
       <c r="Y53" s="15">
-        <v>1040</v>
+        <v>1281</v>
       </c>
       <c r="Z53" s="15">
-        <v>1588</v>
+        <v>677</v>
       </c>
       <c r="AA53" s="15">
-        <v>1281</v>
+        <v>936</v>
       </c>
       <c r="AB53" s="15">
-        <v>677</v>
+        <v>785</v>
       </c>
       <c r="AC53" s="15">
-        <v>936</v>
+        <v>1049</v>
       </c>
       <c r="AD53" s="15">
-        <v>785</v>
+        <v>1710</v>
       </c>
       <c r="AE53" s="15">
         <v>1049</v>
       </c>
       <c r="AF53" s="15">
-        <v>1710</v>
+        <v>821</v>
       </c>
       <c r="AG53" s="15">
-        <v>1049</v>
+        <v>1420</v>
       </c>
       <c r="AH53" s="15">
-        <v>821</v>
+        <v>1181</v>
       </c>
       <c r="AI53" s="15">
-        <v>1420</v>
+        <v>1897</v>
       </c>
       <c r="AJ53" s="15">
-        <v>1181</v>
+        <v>1222</v>
       </c>
       <c r="AK53" s="15">
-        <v>1897</v>
+        <v>628</v>
       </c>
       <c r="AL53" s="15">
-        <v>1222</v>
+        <v>1002</v>
       </c>
       <c r="AM53" s="15">
-        <v>628</v>
+        <v>1762</v>
       </c>
       <c r="AN53" s="15">
-        <v>1002</v>
+        <v>1754</v>
       </c>
       <c r="AO53" s="15">
-        <v>1762</v>
+        <v>1283</v>
       </c>
       <c r="AP53" s="15">
-        <v>1754</v>
+        <v>1064</v>
       </c>
       <c r="AQ53" s="15">
-        <v>1283</v>
+        <v>1971</v>
       </c>
       <c r="AR53" s="15">
-        <v>1064</v>
+        <v>573</v>
       </c>
       <c r="AS53" s="15">
-        <v>1971</v>
+        <v>2119</v>
       </c>
       <c r="AT53" s="15">
-        <v>594</v>
+        <v>1715</v>
       </c>
       <c r="AU53" s="15">
-        <v>2119</v>
+        <v>1676</v>
       </c>
       <c r="AV53" s="15">
-        <v>1715</v>
+        <v>1533</v>
       </c>
       <c r="AW53" s="15">
-        <v>1623</v>
+        <v>1361</v>
       </c>
       <c r="AX53" s="15">
-        <v>1533</v>
+        <v>1444</v>
       </c>
       <c r="AY53" s="15">
-        <v>1361</v>
+        <v>2148</v>
       </c>
       <c r="AZ53" s="15">
-        <v>1444</v>
+        <v>1248</v>
       </c>
       <c r="BA53" s="15">
-        <v>2148</v>
+        <v>1646</v>
       </c>
       <c r="BB53" s="15">
-        <v>1248</v>
+        <v>1778</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>80</v>
       </c>
@@ -7397,7 +7397,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>61</v>
       </c>
@@ -7459,75 +7459,75 @@
       <c r="V55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>58</v>
+      <c r="W55" s="11">
+        <v>-46</v>
+      </c>
+      <c r="X55" s="11">
+        <v>-15</v>
       </c>
       <c r="Y55" s="11">
-        <v>-46</v>
+        <v>-7</v>
       </c>
       <c r="Z55" s="11">
+        <v>-6</v>
+      </c>
+      <c r="AA55" s="11">
         <v>-15</v>
       </c>
-      <c r="AA55" s="11">
-        <v>-7</v>
-      </c>
       <c r="AB55" s="11">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AC55" s="11">
+        <v>-17</v>
+      </c>
+      <c r="AD55" s="11">
+        <v>-40</v>
+      </c>
+      <c r="AE55" s="11">
+        <v>-18</v>
+      </c>
+      <c r="AF55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG55" s="11">
+        <v>-27</v>
+      </c>
+      <c r="AH55" s="11">
+        <v>-23</v>
+      </c>
+      <c r="AI55" s="11">
+        <v>-80</v>
+      </c>
+      <c r="AJ55" s="11">
+        <v>-101</v>
+      </c>
+      <c r="AK55" s="11">
+        <v>-23</v>
+      </c>
+      <c r="AL55" s="11">
         <v>-15</v>
       </c>
-      <c r="AD55" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AE55" s="11">
-        <v>-17</v>
-      </c>
-      <c r="AF55" s="11">
-        <v>-40</v>
-      </c>
-      <c r="AG55" s="11">
-        <v>-18</v>
-      </c>
-      <c r="AH55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI55" s="11">
-        <v>-27</v>
-      </c>
-      <c r="AJ55" s="11">
-        <v>-23</v>
-      </c>
-      <c r="AK55" s="11">
-        <v>-80</v>
-      </c>
-      <c r="AL55" s="11">
-        <v>-101</v>
-      </c>
       <c r="AM55" s="11">
-        <v>-23</v>
+        <v>-28</v>
       </c>
       <c r="AN55" s="11">
-        <v>-15</v>
+        <v>-55</v>
       </c>
       <c r="AO55" s="11">
-        <v>-28</v>
+        <v>-35</v>
       </c>
       <c r="AP55" s="11">
-        <v>-55</v>
+        <v>-30</v>
       </c>
       <c r="AQ55" s="11">
-        <v>-35</v>
-      </c>
-      <c r="AR55" s="11">
-        <v>-30</v>
-      </c>
-      <c r="AS55" s="11">
         <v>-78</v>
       </c>
+      <c r="AR55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS55" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT55" s="11" t="s">
         <v>58</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>62</v>
       </c>
@@ -7688,34 +7688,34 @@
         <v>58</v>
       </c>
       <c r="AT56" s="13">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AU56" s="13">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="AV56" s="13">
-        <v>-20</v>
+        <v>-114</v>
       </c>
       <c r="AW56" s="13">
-        <v>-24</v>
+        <v>-16</v>
       </c>
       <c r="AX56" s="13">
-        <v>-114</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="13">
-        <v>-16</v>
+        <v>-36</v>
       </c>
       <c r="AZ56" s="13">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="BA56" s="13">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="13">
-        <v>-5</v>
+        <v>-68</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
         <v>81</v>
       </c>
@@ -7775,104 +7775,104 @@
       <c r="V57" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="17" t="s">
-        <v>58</v>
+      <c r="W57" s="17">
+        <v>-46</v>
+      </c>
+      <c r="X57" s="17">
+        <v>-15</v>
       </c>
       <c r="Y57" s="17">
-        <v>-46</v>
+        <v>-7</v>
       </c>
       <c r="Z57" s="17">
+        <v>-6</v>
+      </c>
+      <c r="AA57" s="17">
         <v>-15</v>
       </c>
-      <c r="AA57" s="17">
-        <v>-7</v>
-      </c>
       <c r="AB57" s="17">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AC57" s="17">
+        <v>-17</v>
+      </c>
+      <c r="AD57" s="17">
+        <v>-40</v>
+      </c>
+      <c r="AE57" s="17">
+        <v>-18</v>
+      </c>
+      <c r="AF57" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="17">
+        <v>-27</v>
+      </c>
+      <c r="AH57" s="17">
+        <v>-23</v>
+      </c>
+      <c r="AI57" s="17">
+        <v>-80</v>
+      </c>
+      <c r="AJ57" s="17">
+        <v>-101</v>
+      </c>
+      <c r="AK57" s="17">
+        <v>-23</v>
+      </c>
+      <c r="AL57" s="17">
         <v>-15</v>
       </c>
-      <c r="AD57" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AE57" s="17">
-        <v>-17</v>
-      </c>
-      <c r="AF57" s="17">
-        <v>-40</v>
-      </c>
-      <c r="AG57" s="17">
-        <v>-18</v>
-      </c>
-      <c r="AH57" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="17">
-        <v>-27</v>
-      </c>
-      <c r="AJ57" s="17">
-        <v>-23</v>
-      </c>
-      <c r="AK57" s="17">
-        <v>-80</v>
-      </c>
-      <c r="AL57" s="17">
-        <v>-101</v>
-      </c>
       <c r="AM57" s="17">
-        <v>-23</v>
+        <v>-28</v>
       </c>
       <c r="AN57" s="17">
-        <v>-15</v>
+        <v>-55</v>
       </c>
       <c r="AO57" s="17">
-        <v>-28</v>
+        <v>-35</v>
       </c>
       <c r="AP57" s="17">
-        <v>-55</v>
+        <v>-30</v>
       </c>
       <c r="AQ57" s="17">
-        <v>-35</v>
+        <v>-78</v>
       </c>
       <c r="AR57" s="17">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AS57" s="17">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="17">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AU57" s="17">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="AV57" s="17">
-        <v>-20</v>
+        <v>-114</v>
       </c>
       <c r="AW57" s="17">
-        <v>-24</v>
+        <v>-16</v>
       </c>
       <c r="AX57" s="17">
-        <v>-114</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="17">
-        <v>-16</v>
+        <v>-36</v>
       </c>
       <c r="AZ57" s="17">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="BA57" s="17">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="17">
-        <v>-5</v>
+        <v>-68</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>74</v>
       </c>
@@ -7933,103 +7933,103 @@
         <v>0</v>
       </c>
       <c r="W58" s="15">
-        <v>0</v>
+        <v>17416</v>
       </c>
       <c r="X58" s="15">
-        <v>0</v>
+        <v>11190</v>
       </c>
       <c r="Y58" s="15">
-        <v>17416</v>
+        <v>10446</v>
       </c>
       <c r="Z58" s="15">
-        <v>11190</v>
+        <v>12581</v>
       </c>
       <c r="AA58" s="15">
-        <v>10446</v>
+        <v>7048</v>
       </c>
       <c r="AB58" s="15">
-        <v>12581</v>
+        <v>8523</v>
       </c>
       <c r="AC58" s="15">
-        <v>7048</v>
+        <v>6087</v>
       </c>
       <c r="AD58" s="15">
-        <v>8523</v>
+        <v>7168</v>
       </c>
       <c r="AE58" s="15">
-        <v>6087</v>
+        <v>9809</v>
       </c>
       <c r="AF58" s="15">
-        <v>7168</v>
+        <v>5714</v>
       </c>
       <c r="AG58" s="15">
-        <v>9809</v>
+        <v>8449</v>
       </c>
       <c r="AH58" s="15">
-        <v>5714</v>
+        <v>10015</v>
       </c>
       <c r="AI58" s="15">
-        <v>8449</v>
+        <v>12638</v>
       </c>
       <c r="AJ58" s="15">
-        <v>10015</v>
+        <v>11353</v>
       </c>
       <c r="AK58" s="15">
-        <v>12638</v>
+        <v>8578</v>
       </c>
       <c r="AL58" s="15">
-        <v>11353</v>
+        <v>10178</v>
       </c>
       <c r="AM58" s="15">
-        <v>8578</v>
+        <v>13397</v>
       </c>
       <c r="AN58" s="15">
-        <v>10178</v>
+        <v>17256</v>
       </c>
       <c r="AO58" s="15">
-        <v>13397</v>
+        <v>12158</v>
       </c>
       <c r="AP58" s="15">
-        <v>17256</v>
+        <v>12437</v>
       </c>
       <c r="AQ58" s="15">
-        <v>12158</v>
+        <v>17693</v>
       </c>
       <c r="AR58" s="15">
-        <v>11373</v>
+        <v>4346</v>
       </c>
       <c r="AS58" s="15">
-        <v>17693</v>
+        <v>12062</v>
       </c>
       <c r="AT58" s="15">
-        <v>4053</v>
+        <v>14013</v>
       </c>
       <c r="AU58" s="15">
-        <v>12062</v>
+        <v>14048</v>
       </c>
       <c r="AV58" s="15">
-        <v>14007</v>
+        <v>12637</v>
       </c>
       <c r="AW58" s="15">
-        <v>13995</v>
+        <v>17338</v>
       </c>
       <c r="AX58" s="15">
-        <v>12637</v>
+        <v>12622</v>
       </c>
       <c r="AY58" s="15">
-        <v>17338</v>
+        <v>15638</v>
       </c>
       <c r="AZ58" s="15">
-        <v>12622</v>
+        <v>12812</v>
       </c>
       <c r="BA58" s="15">
-        <v>15638</v>
+        <v>12417</v>
       </c>
       <c r="BB58" s="15">
-        <v>12812</v>
+        <v>13153</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -8084,7 +8084,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8139,7 +8139,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8194,7 +8194,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>82</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -8406,7 +8406,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>83</v>
       </c>
@@ -8463,7 +8463,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>56</v>
       </c>
@@ -8555,47 +8555,47 @@
       <c r="AF65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH65" s="11" t="s">
-        <v>58</v>
+      <c r="AG65" s="11">
+        <v>181748</v>
+      </c>
+      <c r="AH65" s="11">
+        <v>129331</v>
       </c>
       <c r="AI65" s="11">
-        <v>181748</v>
+        <v>252852</v>
       </c>
       <c r="AJ65" s="11">
-        <v>129331</v>
+        <v>323395</v>
       </c>
       <c r="AK65" s="11">
-        <v>252852</v>
+        <v>81984</v>
       </c>
       <c r="AL65" s="11">
-        <v>323395</v>
+        <v>240467</v>
       </c>
       <c r="AM65" s="11">
-        <v>81984</v>
+        <v>329293</v>
       </c>
       <c r="AN65" s="11">
-        <v>240467</v>
+        <v>515244</v>
       </c>
       <c r="AO65" s="11">
-        <v>329293</v>
+        <v>177671</v>
       </c>
       <c r="AP65" s="11">
-        <v>515244</v>
+        <v>259966</v>
       </c>
       <c r="AQ65" s="11">
-        <v>177671</v>
-      </c>
-      <c r="AR65" s="11">
-        <v>259966</v>
-      </c>
-      <c r="AS65" s="11">
         <v>86453</v>
       </c>
-      <c r="AT65" s="11" t="s">
-        <v>58</v>
+      <c r="AR65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT65" s="11">
+        <v>0</v>
       </c>
       <c r="AU65" s="11">
         <v>0</v>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>59</v>
       </c>
@@ -8684,41 +8684,41 @@
       <c r="V66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="13" t="s">
-        <v>58</v>
+      <c r="W66" s="13">
+        <v>0</v>
+      </c>
+      <c r="X66" s="13">
+        <v>0</v>
       </c>
       <c r="Y66" s="13">
-        <v>0</v>
+        <v>18417</v>
       </c>
       <c r="Z66" s="13">
-        <v>0</v>
+        <v>177595</v>
       </c>
       <c r="AA66" s="13">
-        <v>18417</v>
+        <v>146143</v>
       </c>
       <c r="AB66" s="13">
-        <v>177595</v>
+        <v>146016</v>
       </c>
       <c r="AC66" s="13">
-        <v>146143</v>
+        <v>74759</v>
       </c>
       <c r="AD66" s="13">
-        <v>146016</v>
+        <v>140521</v>
       </c>
       <c r="AE66" s="13">
-        <v>74759</v>
+        <v>127076</v>
       </c>
       <c r="AF66" s="13">
-        <v>140521</v>
+        <v>131191</v>
       </c>
       <c r="AG66" s="13">
-        <v>127076</v>
+        <v>0</v>
       </c>
       <c r="AH66" s="13">
-        <v>131191</v>
+        <v>0</v>
       </c>
       <c r="AI66" s="13">
         <v>0</v>
@@ -8747,11 +8747,11 @@
       <c r="AQ66" s="13">
         <v>0</v>
       </c>
-      <c r="AR66" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS66" s="13">
-        <v>0</v>
+      <c r="AR66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT66" s="13" t="s">
         <v>58</v>
@@ -8781,7 +8781,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>60</v>
       </c>
@@ -8843,41 +8843,41 @@
       <c r="V67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="11" t="s">
-        <v>58</v>
+      <c r="W67" s="11">
+        <v>787</v>
+      </c>
+      <c r="X67" s="11">
+        <v>0</v>
       </c>
       <c r="Y67" s="11">
-        <v>787</v>
+        <v>77</v>
       </c>
       <c r="Z67" s="11">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="AA67" s="11">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="11">
-        <v>372</v>
+        <v>12614</v>
       </c>
       <c r="AC67" s="11">
-        <v>0</v>
+        <v>18310</v>
       </c>
       <c r="AD67" s="11">
-        <v>12614</v>
+        <v>5592</v>
       </c>
       <c r="AE67" s="11">
-        <v>18310</v>
+        <v>122614</v>
       </c>
       <c r="AF67" s="11">
-        <v>5592</v>
+        <v>431</v>
       </c>
       <c r="AG67" s="11">
-        <v>122614</v>
+        <v>0</v>
       </c>
       <c r="AH67" s="11">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="AI67" s="11">
         <v>0</v>
@@ -8906,11 +8906,11 @@
       <c r="AQ67" s="11">
         <v>0</v>
       </c>
-      <c r="AR67" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS67" s="11">
-        <v>0</v>
+      <c r="AR67" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS67" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT67" s="11" t="s">
         <v>58</v>
@@ -8940,7 +8940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>61</v>
       </c>
@@ -9002,75 +9002,75 @@
       <c r="V68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X68" s="13" t="s">
-        <v>58</v>
+      <c r="W68" s="13">
+        <v>1439171</v>
+      </c>
+      <c r="X68" s="13">
+        <v>1055244</v>
       </c>
       <c r="Y68" s="13">
-        <v>1439171</v>
+        <v>1309106</v>
       </c>
       <c r="Z68" s="13">
-        <v>1055244</v>
+        <v>2034396</v>
       </c>
       <c r="AA68" s="13">
-        <v>1309106</v>
+        <v>1026051</v>
       </c>
       <c r="AB68" s="13">
-        <v>2034396</v>
+        <v>1180637</v>
       </c>
       <c r="AC68" s="13">
-        <v>1026051</v>
+        <v>977956</v>
       </c>
       <c r="AD68" s="13">
-        <v>1180637</v>
+        <v>1003721</v>
       </c>
       <c r="AE68" s="13">
-        <v>977956</v>
+        <v>1556036</v>
       </c>
       <c r="AF68" s="13">
-        <v>1003721</v>
+        <v>895182</v>
       </c>
       <c r="AG68" s="13">
-        <v>1556036</v>
+        <v>1380153</v>
       </c>
       <c r="AH68" s="13">
-        <v>895182</v>
+        <v>1857204</v>
       </c>
       <c r="AI68" s="13">
-        <v>1380153</v>
+        <v>2131435</v>
       </c>
       <c r="AJ68" s="13">
-        <v>1857204</v>
+        <v>2043728</v>
       </c>
       <c r="AK68" s="13">
-        <v>2131435</v>
+        <v>1904366</v>
       </c>
       <c r="AL68" s="13">
-        <v>2043728</v>
+        <v>1997985</v>
       </c>
       <c r="AM68" s="13">
-        <v>1904366</v>
+        <v>2565504</v>
       </c>
       <c r="AN68" s="13">
-        <v>1997985</v>
+        <v>3211887</v>
       </c>
       <c r="AO68" s="13">
-        <v>2565504</v>
+        <v>2551658</v>
       </c>
       <c r="AP68" s="13">
-        <v>3211887</v>
+        <v>2336590</v>
       </c>
       <c r="AQ68" s="13">
-        <v>2551658</v>
-      </c>
-      <c r="AR68" s="13">
-        <v>2336579</v>
-      </c>
-      <c r="AS68" s="13">
         <v>3512440</v>
       </c>
+      <c r="AR68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS68" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT68" s="13" t="s">
         <v>58</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>62</v>
       </c>
@@ -9224,41 +9224,41 @@
       <c r="AQ69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS69" s="11" t="s">
-        <v>58</v>
+      <c r="AR69" s="11">
+        <v>860849</v>
+      </c>
+      <c r="AS69" s="11">
+        <v>2401945</v>
       </c>
       <c r="AT69" s="11">
-        <v>761529</v>
+        <v>3018187</v>
       </c>
       <c r="AU69" s="11">
-        <v>2397497</v>
+        <v>2772317</v>
       </c>
       <c r="AV69" s="11">
-        <v>3018187</v>
+        <v>2447930</v>
       </c>
       <c r="AW69" s="11">
-        <v>2774002</v>
+        <v>3280495</v>
       </c>
       <c r="AX69" s="11">
-        <v>2447930</v>
+        <v>2285638</v>
       </c>
       <c r="AY69" s="11">
-        <v>3280496</v>
+        <v>2971413</v>
       </c>
       <c r="AZ69" s="11">
-        <v>2285638</v>
+        <v>2533594</v>
       </c>
       <c r="BA69" s="11">
-        <v>2971413</v>
+        <v>2573610</v>
       </c>
       <c r="BB69" s="11">
-        <v>2526921</v>
+        <v>3321029</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>63</v>
       </c>
@@ -9380,15 +9380,15 @@
       <c r="AP70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR70" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS70" s="13">
+      <c r="AQ70" s="13">
         <v>580957</v>
       </c>
+      <c r="AR70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS70" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT70" s="13" t="s">
         <v>58</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>65</v>
       </c>
@@ -9542,41 +9542,41 @@
       <c r="AQ71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS71" s="11" t="s">
-        <v>58</v>
+      <c r="AR71" s="11">
+        <v>3722</v>
+      </c>
+      <c r="AS71" s="11">
+        <v>2574</v>
       </c>
       <c r="AT71" s="11">
-        <v>3722</v>
+        <v>5027</v>
       </c>
       <c r="AU71" s="11">
-        <v>2574</v>
+        <v>41449</v>
       </c>
       <c r="AV71" s="11">
-        <v>5027</v>
+        <v>5910</v>
       </c>
       <c r="AW71" s="11">
-        <v>41449</v>
+        <v>71554</v>
       </c>
       <c r="AX71" s="11">
-        <v>5910</v>
+        <v>0</v>
       </c>
       <c r="AY71" s="11">
-        <v>71554</v>
+        <v>0</v>
       </c>
       <c r="AZ71" s="11">
         <v>0</v>
       </c>
       <c r="BA71" s="11">
-        <v>0</v>
+        <v>5028</v>
       </c>
       <c r="BB71" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
         <v>77</v>
       </c>
@@ -9637,103 +9637,103 @@
         <v>0</v>
       </c>
       <c r="W72" s="15">
-        <v>0</v>
+        <v>1439958</v>
       </c>
       <c r="X72" s="15">
-        <v>0</v>
+        <v>1055244</v>
       </c>
       <c r="Y72" s="15">
-        <v>1439958</v>
+        <v>1327600</v>
       </c>
       <c r="Z72" s="15">
-        <v>1055244</v>
+        <v>2212363</v>
       </c>
       <c r="AA72" s="15">
-        <v>1327600</v>
+        <v>1172194</v>
       </c>
       <c r="AB72" s="15">
-        <v>2212363</v>
+        <v>1339267</v>
       </c>
       <c r="AC72" s="15">
-        <v>1172194</v>
+        <v>1071025</v>
       </c>
       <c r="AD72" s="15">
-        <v>1339267</v>
+        <v>1149834</v>
       </c>
       <c r="AE72" s="15">
-        <v>1071025</v>
+        <v>1805726</v>
       </c>
       <c r="AF72" s="15">
-        <v>1149834</v>
+        <v>1026804</v>
       </c>
       <c r="AG72" s="15">
-        <v>1805726</v>
+        <v>1561901</v>
       </c>
       <c r="AH72" s="15">
-        <v>1026804</v>
+        <v>1986535</v>
       </c>
       <c r="AI72" s="15">
-        <v>1561901</v>
+        <v>2384287</v>
       </c>
       <c r="AJ72" s="15">
-        <v>1986535</v>
+        <v>2367123</v>
       </c>
       <c r="AK72" s="15">
-        <v>2384287</v>
+        <v>1986350</v>
       </c>
       <c r="AL72" s="15">
-        <v>2367123</v>
+        <v>2238452</v>
       </c>
       <c r="AM72" s="15">
-        <v>1986350</v>
+        <v>2894797</v>
       </c>
       <c r="AN72" s="15">
-        <v>2238452</v>
+        <v>3727131</v>
       </c>
       <c r="AO72" s="15">
-        <v>2894797</v>
+        <v>2729329</v>
       </c>
       <c r="AP72" s="15">
-        <v>3727131</v>
+        <v>2596556</v>
       </c>
       <c r="AQ72" s="15">
-        <v>2729329</v>
+        <v>4179850</v>
       </c>
       <c r="AR72" s="15">
-        <v>2596545</v>
+        <v>864571</v>
       </c>
       <c r="AS72" s="15">
-        <v>4179850</v>
+        <v>2404519</v>
       </c>
       <c r="AT72" s="15">
-        <v>765251</v>
+        <v>3023214</v>
       </c>
       <c r="AU72" s="15">
-        <v>2400071</v>
+        <v>2813766</v>
       </c>
       <c r="AV72" s="15">
-        <v>3023214</v>
+        <v>2453840</v>
       </c>
       <c r="AW72" s="15">
-        <v>2815451</v>
+        <v>3352049</v>
       </c>
       <c r="AX72" s="15">
-        <v>2453840</v>
+        <v>2285638</v>
       </c>
       <c r="AY72" s="15">
-        <v>3352050</v>
+        <v>2971413</v>
       </c>
       <c r="AZ72" s="15">
-        <v>2285638</v>
+        <v>2533594</v>
       </c>
       <c r="BA72" s="15">
-        <v>2971413</v>
+        <v>2578638</v>
       </c>
       <c r="BB72" s="15">
-        <v>2526921</v>
+        <v>3321029</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>84</v>
       </c>
@@ -9790,7 +9790,7 @@
       <c r="BA73" s="9"/>
       <c r="BB73" s="9"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>59</v>
       </c>
@@ -9852,20 +9852,20 @@
       <c r="V74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X74" s="11" t="s">
-        <v>58</v>
+      <c r="W74" s="11">
+        <v>48573</v>
+      </c>
+      <c r="X74" s="11">
+        <v>86361</v>
       </c>
       <c r="Y74" s="11">
-        <v>48573</v>
+        <v>26331</v>
       </c>
       <c r="Z74" s="11">
-        <v>86361</v>
+        <v>0</v>
       </c>
       <c r="AA74" s="11">
-        <v>26331</v>
+        <v>0</v>
       </c>
       <c r="AB74" s="11">
         <v>0</v>
@@ -9879,11 +9879,11 @@
       <c r="AE74" s="11">
         <v>0</v>
       </c>
-      <c r="AF74" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG74" s="11">
-        <v>0</v>
+      <c r="AF74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH74" s="11" t="s">
         <v>58</v>
@@ -9949,7 +9949,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>61</v>
       </c>
@@ -10011,41 +10011,41 @@
       <c r="V75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X75" s="13" t="s">
-        <v>58</v>
+      <c r="W75" s="13">
+        <v>97235</v>
+      </c>
+      <c r="X75" s="13">
+        <v>87140</v>
       </c>
       <c r="Y75" s="13">
-        <v>97235</v>
+        <v>45719</v>
       </c>
       <c r="Z75" s="13">
-        <v>87140</v>
+        <v>10902</v>
       </c>
       <c r="AA75" s="13">
-        <v>45719</v>
+        <v>8166</v>
       </c>
       <c r="AB75" s="13">
-        <v>10902</v>
+        <v>23214</v>
       </c>
       <c r="AC75" s="13">
-        <v>8166</v>
+        <v>0</v>
       </c>
       <c r="AD75" s="13">
-        <v>23214</v>
+        <v>4657</v>
       </c>
       <c r="AE75" s="13">
-        <v>0</v>
+        <v>29866</v>
       </c>
       <c r="AF75" s="13">
-        <v>4657</v>
+        <v>19138</v>
       </c>
       <c r="AG75" s="13">
-        <v>29866</v>
+        <v>0</v>
       </c>
       <c r="AH75" s="13">
-        <v>19138</v>
+        <v>0</v>
       </c>
       <c r="AI75" s="13">
         <v>0</v>
@@ -10074,11 +10074,11 @@
       <c r="AQ75" s="13">
         <v>0</v>
       </c>
-      <c r="AR75" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS75" s="13">
-        <v>0</v>
+      <c r="AR75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS75" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT75" s="13" t="s">
         <v>58</v>
@@ -10108,7 +10108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>68</v>
       </c>
@@ -10197,14 +10197,14 @@
       <c r="AE76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF76" s="11" t="s">
-        <v>58</v>
+      <c r="AF76" s="11">
+        <v>0</v>
       </c>
       <c r="AG76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH76" s="11">
-        <v>0</v>
+      <c r="AH76" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI76" s="11" t="s">
         <v>58</v>
@@ -10267,7 +10267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>69</v>
       </c>
@@ -10392,41 +10392,41 @@
       <c r="AQ77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS77" s="13" t="s">
-        <v>58</v>
+      <c r="AR77" s="13">
+        <v>96500</v>
+      </c>
+      <c r="AS77" s="13">
+        <v>173471</v>
       </c>
       <c r="AT77" s="13">
-        <v>96197</v>
+        <v>96967</v>
       </c>
       <c r="AU77" s="13">
-        <v>173471</v>
+        <v>226801</v>
       </c>
       <c r="AV77" s="13">
-        <v>96967</v>
+        <v>91503</v>
       </c>
       <c r="AW77" s="13">
-        <v>226801</v>
+        <v>179209</v>
       </c>
       <c r="AX77" s="13">
-        <v>91503</v>
+        <v>268703</v>
       </c>
       <c r="AY77" s="13">
-        <v>179209</v>
+        <v>167874</v>
       </c>
       <c r="AZ77" s="13">
-        <v>268703</v>
+        <v>263297</v>
       </c>
       <c r="BA77" s="13">
-        <v>167874</v>
+        <v>153887</v>
       </c>
       <c r="BB77" s="13">
-        <v>263297</v>
+        <v>62321</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>65</v>
       </c>
@@ -10524,11 +10524,11 @@
       <c r="AH78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ78" s="11" t="s">
-        <v>58</v>
+      <c r="AI78" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="11">
+        <v>0</v>
       </c>
       <c r="AK78" s="11">
         <v>0</v>
@@ -10551,11 +10551,11 @@
       <c r="AQ78" s="11">
         <v>0</v>
       </c>
-      <c r="AR78" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS78" s="11">
-        <v>0</v>
+      <c r="AR78" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS78" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT78" s="11" t="s">
         <v>58</v>
@@ -10585,7 +10585,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
         <v>79</v>
       </c>
@@ -10646,40 +10646,40 @@
         <v>0</v>
       </c>
       <c r="W79" s="15">
-        <v>0</v>
+        <v>145808</v>
       </c>
       <c r="X79" s="15">
-        <v>0</v>
+        <v>173501</v>
       </c>
       <c r="Y79" s="15">
-        <v>145808</v>
+        <v>72050</v>
       </c>
       <c r="Z79" s="15">
-        <v>173501</v>
+        <v>10902</v>
       </c>
       <c r="AA79" s="15">
-        <v>72050</v>
+        <v>8166</v>
       </c>
       <c r="AB79" s="15">
-        <v>10902</v>
+        <v>23214</v>
       </c>
       <c r="AC79" s="15">
-        <v>8166</v>
+        <v>0</v>
       </c>
       <c r="AD79" s="15">
-        <v>23214</v>
+        <v>4657</v>
       </c>
       <c r="AE79" s="15">
-        <v>0</v>
+        <v>29866</v>
       </c>
       <c r="AF79" s="15">
-        <v>4657</v>
+        <v>19138</v>
       </c>
       <c r="AG79" s="15">
-        <v>29866</v>
+        <v>0</v>
       </c>
       <c r="AH79" s="15">
-        <v>19138</v>
+        <v>0</v>
       </c>
       <c r="AI79" s="15">
         <v>0</v>
@@ -10709,40 +10709,40 @@
         <v>0</v>
       </c>
       <c r="AR79" s="15">
-        <v>0</v>
+        <v>96500</v>
       </c>
       <c r="AS79" s="15">
-        <v>0</v>
+        <v>173471</v>
       </c>
       <c r="AT79" s="15">
-        <v>96197</v>
+        <v>96967</v>
       </c>
       <c r="AU79" s="15">
-        <v>173471</v>
+        <v>226801</v>
       </c>
       <c r="AV79" s="15">
-        <v>96967</v>
+        <v>91503</v>
       </c>
       <c r="AW79" s="15">
-        <v>226801</v>
+        <v>179209</v>
       </c>
       <c r="AX79" s="15">
-        <v>91503</v>
+        <v>268703</v>
       </c>
       <c r="AY79" s="15">
-        <v>179209</v>
+        <v>167874</v>
       </c>
       <c r="AZ79" s="15">
-        <v>268703</v>
+        <v>263297</v>
       </c>
       <c r="BA79" s="15">
-        <v>167874</v>
+        <v>153887</v>
       </c>
       <c r="BB79" s="15">
-        <v>263297</v>
+        <v>62321</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>85</v>
       </c>
@@ -10799,7 +10799,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>72</v>
       </c>
@@ -10861,104 +10861,104 @@
       <c r="V81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>58</v>
+      <c r="W81" s="11">
+        <v>1543</v>
+      </c>
+      <c r="X81" s="11">
+        <v>397</v>
       </c>
       <c r="Y81" s="11">
-        <v>1543</v>
+        <v>500</v>
       </c>
       <c r="Z81" s="11">
-        <v>397</v>
+        <v>169</v>
       </c>
       <c r="AA81" s="11">
-        <v>500</v>
+        <v>1179</v>
       </c>
       <c r="AB81" s="11">
-        <v>169</v>
+        <v>7775</v>
       </c>
       <c r="AC81" s="11">
-        <v>1179</v>
+        <v>3177</v>
       </c>
       <c r="AD81" s="11">
-        <v>7775</v>
+        <v>10685</v>
       </c>
       <c r="AE81" s="11">
-        <v>3177</v>
+        <v>7617</v>
       </c>
       <c r="AF81" s="11">
-        <v>10685</v>
+        <v>205</v>
       </c>
       <c r="AG81" s="11">
-        <v>7617</v>
+        <v>725</v>
       </c>
       <c r="AH81" s="11">
-        <v>205</v>
+        <v>402</v>
       </c>
       <c r="AI81" s="11">
-        <v>725</v>
+        <v>4499</v>
       </c>
       <c r="AJ81" s="11">
-        <v>402</v>
+        <v>2354</v>
       </c>
       <c r="AK81" s="11">
-        <v>4499</v>
+        <v>216</v>
       </c>
       <c r="AL81" s="11">
-        <v>2354</v>
+        <v>299</v>
       </c>
       <c r="AM81" s="11">
-        <v>216</v>
+        <v>524</v>
       </c>
       <c r="AN81" s="11">
-        <v>299</v>
+        <v>5714</v>
       </c>
       <c r="AO81" s="11">
-        <v>524</v>
+        <v>382</v>
       </c>
       <c r="AP81" s="11">
-        <v>5714</v>
+        <v>3516</v>
       </c>
       <c r="AQ81" s="11">
-        <v>382</v>
+        <v>588</v>
       </c>
       <c r="AR81" s="11">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="AS81" s="11">
-        <v>588</v>
+        <v>7734</v>
       </c>
       <c r="AT81" s="11">
-        <v>649</v>
+        <v>5796</v>
       </c>
       <c r="AU81" s="11">
-        <v>7734</v>
+        <v>1127</v>
       </c>
       <c r="AV81" s="11">
-        <v>5796</v>
+        <v>613</v>
       </c>
       <c r="AW81" s="11">
-        <v>1137</v>
+        <v>6187</v>
       </c>
       <c r="AX81" s="11">
-        <v>613</v>
+        <v>4110</v>
       </c>
       <c r="AY81" s="11">
-        <v>6187</v>
+        <v>6201</v>
       </c>
       <c r="AZ81" s="11">
-        <v>4110</v>
+        <v>3220</v>
       </c>
       <c r="BA81" s="11">
-        <v>6201</v>
+        <v>7407</v>
       </c>
       <c r="BB81" s="11">
-        <v>3220</v>
+        <v>4568</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
         <v>73</v>
       </c>
@@ -11020,104 +11020,104 @@
       <c r="V82" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X82" s="15" t="s">
-        <v>58</v>
+      <c r="W82" s="15">
+        <v>1543</v>
+      </c>
+      <c r="X82" s="15">
+        <v>397</v>
       </c>
       <c r="Y82" s="15">
-        <v>1543</v>
+        <v>500</v>
       </c>
       <c r="Z82" s="15">
-        <v>397</v>
+        <v>169</v>
       </c>
       <c r="AA82" s="15">
-        <v>500</v>
+        <v>1179</v>
       </c>
       <c r="AB82" s="15">
-        <v>169</v>
+        <v>7775</v>
       </c>
       <c r="AC82" s="15">
-        <v>1179</v>
+        <v>3177</v>
       </c>
       <c r="AD82" s="15">
-        <v>7775</v>
+        <v>10685</v>
       </c>
       <c r="AE82" s="15">
-        <v>3177</v>
+        <v>7617</v>
       </c>
       <c r="AF82" s="15">
-        <v>10685</v>
+        <v>205</v>
       </c>
       <c r="AG82" s="15">
-        <v>7617</v>
+        <v>725</v>
       </c>
       <c r="AH82" s="15">
-        <v>205</v>
+        <v>402</v>
       </c>
       <c r="AI82" s="15">
-        <v>725</v>
+        <v>4499</v>
       </c>
       <c r="AJ82" s="15">
-        <v>402</v>
+        <v>2354</v>
       </c>
       <c r="AK82" s="15">
-        <v>4499</v>
+        <v>216</v>
       </c>
       <c r="AL82" s="15">
-        <v>2354</v>
+        <v>299</v>
       </c>
       <c r="AM82" s="15">
-        <v>216</v>
+        <v>524</v>
       </c>
       <c r="AN82" s="15">
-        <v>299</v>
+        <v>5714</v>
       </c>
       <c r="AO82" s="15">
-        <v>524</v>
+        <v>382</v>
       </c>
       <c r="AP82" s="15">
-        <v>5714</v>
+        <v>3516</v>
       </c>
       <c r="AQ82" s="15">
-        <v>382</v>
+        <v>588</v>
       </c>
       <c r="AR82" s="15">
-        <v>3516</v>
+        <v>574</v>
       </c>
       <c r="AS82" s="15">
-        <v>588</v>
+        <v>7734</v>
       </c>
       <c r="AT82" s="15">
-        <v>649</v>
+        <v>5796</v>
       </c>
       <c r="AU82" s="15">
-        <v>7734</v>
+        <v>1127</v>
       </c>
       <c r="AV82" s="15">
-        <v>5796</v>
+        <v>613</v>
       </c>
       <c r="AW82" s="15">
-        <v>1137</v>
+        <v>6187</v>
       </c>
       <c r="AX82" s="15">
-        <v>613</v>
+        <v>4110</v>
       </c>
       <c r="AY82" s="15">
-        <v>6187</v>
+        <v>6201</v>
       </c>
       <c r="AZ82" s="15">
-        <v>4110</v>
+        <v>3220</v>
       </c>
       <c r="BA82" s="15">
-        <v>6201</v>
+        <v>7407</v>
       </c>
       <c r="BB82" s="15">
-        <v>3220</v>
+        <v>4568</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>86</v>
       </c>
@@ -11174,7 +11174,7 @@
       <c r="BA83" s="9"/>
       <c r="BB83" s="9"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>61</v>
       </c>
@@ -11236,75 +11236,75 @@
       <c r="V84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X84" s="11" t="s">
-        <v>58</v>
+      <c r="W84" s="11">
+        <v>-3803</v>
+      </c>
+      <c r="X84" s="11">
+        <v>-52</v>
       </c>
       <c r="Y84" s="11">
-        <v>-3803</v>
+        <v>-1019</v>
       </c>
       <c r="Z84" s="11">
-        <v>-52</v>
+        <v>-1059</v>
       </c>
       <c r="AA84" s="11">
-        <v>-1019</v>
+        <v>-3121</v>
       </c>
       <c r="AB84" s="11">
-        <v>-1059</v>
+        <v>-24</v>
       </c>
       <c r="AC84" s="11">
-        <v>-3121</v>
+        <v>-2866</v>
       </c>
       <c r="AD84" s="11">
-        <v>-24</v>
+        <v>-6197</v>
       </c>
       <c r="AE84" s="11">
-        <v>-2866</v>
-      </c>
-      <c r="AF84" s="11">
-        <v>-6197</v>
+        <v>-3399</v>
+      </c>
+      <c r="AF84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG84" s="11">
-        <v>-3399</v>
-      </c>
-      <c r="AH84" s="11" t="s">
-        <v>58</v>
+        <v>-5930</v>
+      </c>
+      <c r="AH84" s="11">
+        <v>-5254</v>
       </c>
       <c r="AI84" s="11">
-        <v>-5930</v>
+        <v>-12439</v>
       </c>
       <c r="AJ84" s="11">
-        <v>-5254</v>
+        <v>-30114</v>
       </c>
       <c r="AK84" s="11">
-        <v>-12439</v>
+        <v>-4967</v>
       </c>
       <c r="AL84" s="11">
-        <v>-30114</v>
+        <v>-3507</v>
       </c>
       <c r="AM84" s="11">
-        <v>-4967</v>
+        <v>-7402</v>
       </c>
       <c r="AN84" s="11">
-        <v>-3507</v>
+        <v>-13038</v>
       </c>
       <c r="AO84" s="11">
-        <v>-7402</v>
+        <v>-8156</v>
       </c>
       <c r="AP84" s="11">
-        <v>-13038</v>
+        <v>-5712</v>
       </c>
       <c r="AQ84" s="11">
-        <v>-8156</v>
-      </c>
-      <c r="AR84" s="11">
-        <v>-5712</v>
-      </c>
-      <c r="AS84" s="11">
         <v>-19038</v>
       </c>
+      <c r="AR84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS84" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT84" s="11" t="s">
         <v>58</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>62</v>
       </c>
@@ -11461,38 +11461,38 @@
       <c r="AR85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS85" s="13" t="s">
-        <v>58</v>
+      <c r="AS85" s="13">
+        <v>0</v>
       </c>
       <c r="AT85" s="13">
-        <v>0</v>
+        <v>-3360</v>
       </c>
       <c r="AU85" s="13">
-        <v>0</v>
+        <v>-5528</v>
       </c>
       <c r="AV85" s="13">
-        <v>-4813</v>
+        <v>-24930</v>
       </c>
       <c r="AW85" s="13">
-        <v>-5528</v>
+        <v>-3931</v>
       </c>
       <c r="AX85" s="13">
-        <v>-24930</v>
+        <v>0</v>
       </c>
       <c r="AY85" s="13">
-        <v>-3931</v>
+        <v>-7615</v>
       </c>
       <c r="AZ85" s="13">
-        <v>0</v>
+        <v>-1123</v>
       </c>
       <c r="BA85" s="13">
-        <v>-7615</v>
+        <v>0</v>
       </c>
       <c r="BB85" s="13">
-        <v>-1123</v>
+        <v>-15243</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="16" t="s">
         <v>81</v>
       </c>
@@ -11554,104 +11554,104 @@
       <c r="V86" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X86" s="17" t="s">
-        <v>58</v>
+      <c r="W86" s="17">
+        <v>-3803</v>
+      </c>
+      <c r="X86" s="17">
+        <v>-52</v>
       </c>
       <c r="Y86" s="17">
-        <v>-3803</v>
+        <v>-1019</v>
       </c>
       <c r="Z86" s="17">
-        <v>-52</v>
+        <v>-1059</v>
       </c>
       <c r="AA86" s="17">
-        <v>-1019</v>
+        <v>-3121</v>
       </c>
       <c r="AB86" s="17">
-        <v>-1059</v>
+        <v>-24</v>
       </c>
       <c r="AC86" s="17">
-        <v>-3121</v>
+        <v>-2866</v>
       </c>
       <c r="AD86" s="17">
-        <v>-24</v>
+        <v>-6197</v>
       </c>
       <c r="AE86" s="17">
-        <v>-2866</v>
+        <v>-3399</v>
       </c>
       <c r="AF86" s="17">
-        <v>-6197</v>
+        <v>0</v>
       </c>
       <c r="AG86" s="17">
-        <v>-3399</v>
+        <v>-5930</v>
       </c>
       <c r="AH86" s="17">
-        <v>0</v>
+        <v>-5254</v>
       </c>
       <c r="AI86" s="17">
-        <v>-5930</v>
+        <v>-12439</v>
       </c>
       <c r="AJ86" s="17">
-        <v>-5254</v>
+        <v>-30114</v>
       </c>
       <c r="AK86" s="17">
-        <v>-12439</v>
+        <v>-4967</v>
       </c>
       <c r="AL86" s="17">
-        <v>-30114</v>
+        <v>-3507</v>
       </c>
       <c r="AM86" s="17">
-        <v>-4967</v>
+        <v>-7402</v>
       </c>
       <c r="AN86" s="17">
-        <v>-3507</v>
+        <v>-13038</v>
       </c>
       <c r="AO86" s="17">
-        <v>-7402</v>
+        <v>-8156</v>
       </c>
       <c r="AP86" s="17">
-        <v>-13038</v>
+        <v>-5712</v>
       </c>
       <c r="AQ86" s="17">
-        <v>-8156</v>
+        <v>-19038</v>
       </c>
       <c r="AR86" s="17">
-        <v>-5712</v>
+        <v>0</v>
       </c>
       <c r="AS86" s="17">
-        <v>-19038</v>
+        <v>0</v>
       </c>
       <c r="AT86" s="17">
-        <v>0</v>
+        <v>-3360</v>
       </c>
       <c r="AU86" s="17">
-        <v>0</v>
+        <v>-5528</v>
       </c>
       <c r="AV86" s="17">
-        <v>-4813</v>
+        <v>-24930</v>
       </c>
       <c r="AW86" s="17">
-        <v>-5528</v>
+        <v>-3931</v>
       </c>
       <c r="AX86" s="17">
-        <v>-24930</v>
+        <v>0</v>
       </c>
       <c r="AY86" s="17">
-        <v>-3931</v>
+        <v>-7615</v>
       </c>
       <c r="AZ86" s="17">
-        <v>0</v>
+        <v>-1123</v>
       </c>
       <c r="BA86" s="17">
-        <v>-7615</v>
+        <v>0</v>
       </c>
       <c r="BB86" s="17">
-        <v>-1123</v>
+        <v>-15243</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>87</v>
       </c>
@@ -11708,7 +11708,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>88</v>
       </c>
@@ -11770,11 +11770,11 @@
       <c r="V88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X88" s="11" t="s">
-        <v>58</v>
+      <c r="W88" s="11">
+        <v>0</v>
+      </c>
+      <c r="X88" s="11">
+        <v>0</v>
       </c>
       <c r="Y88" s="11">
         <v>0</v>
@@ -11867,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
         <v>74</v>
       </c>
@@ -11928,103 +11928,103 @@
         <v>0</v>
       </c>
       <c r="W89" s="15">
-        <v>0</v>
+        <v>1583506</v>
       </c>
       <c r="X89" s="15">
-        <v>0</v>
+        <v>1229090</v>
       </c>
       <c r="Y89" s="15">
-        <v>1583506</v>
+        <v>1399131</v>
       </c>
       <c r="Z89" s="15">
-        <v>1229090</v>
+        <v>2222375</v>
       </c>
       <c r="AA89" s="15">
-        <v>1399131</v>
+        <v>1178418</v>
       </c>
       <c r="AB89" s="15">
-        <v>2222375</v>
+        <v>1370232</v>
       </c>
       <c r="AC89" s="15">
-        <v>1178418</v>
+        <v>1071336</v>
       </c>
       <c r="AD89" s="15">
-        <v>1370232</v>
+        <v>1158979</v>
       </c>
       <c r="AE89" s="15">
-        <v>1071336</v>
+        <v>1839810</v>
       </c>
       <c r="AF89" s="15">
-        <v>1158979</v>
+        <v>1046147</v>
       </c>
       <c r="AG89" s="15">
-        <v>1839810</v>
+        <v>1556696</v>
       </c>
       <c r="AH89" s="15">
-        <v>1046147</v>
+        <v>1981683</v>
       </c>
       <c r="AI89" s="15">
-        <v>1556696</v>
+        <v>2376347</v>
       </c>
       <c r="AJ89" s="15">
-        <v>1981683</v>
+        <v>2339363</v>
       </c>
       <c r="AK89" s="15">
-        <v>2376347</v>
+        <v>1981599</v>
       </c>
       <c r="AL89" s="15">
-        <v>2339363</v>
+        <v>2235244</v>
       </c>
       <c r="AM89" s="15">
-        <v>1981599</v>
+        <v>2887919</v>
       </c>
       <c r="AN89" s="15">
-        <v>2235244</v>
+        <v>3719807</v>
       </c>
       <c r="AO89" s="15">
-        <v>2887919</v>
+        <v>2721555</v>
       </c>
       <c r="AP89" s="15">
-        <v>3719807</v>
+        <v>2594360</v>
       </c>
       <c r="AQ89" s="15">
-        <v>2721555</v>
+        <v>4161400</v>
       </c>
       <c r="AR89" s="15">
-        <v>2590833</v>
+        <v>961645</v>
       </c>
       <c r="AS89" s="15">
-        <v>4161400</v>
+        <v>2585724</v>
       </c>
       <c r="AT89" s="15">
-        <v>862097</v>
+        <v>3122617</v>
       </c>
       <c r="AU89" s="15">
-        <v>2581276</v>
+        <v>3036166</v>
       </c>
       <c r="AV89" s="15">
-        <v>3121164</v>
+        <v>2521026</v>
       </c>
       <c r="AW89" s="15">
-        <v>3037861</v>
+        <v>3533514</v>
       </c>
       <c r="AX89" s="15">
-        <v>2521026</v>
+        <v>2558451</v>
       </c>
       <c r="AY89" s="15">
-        <v>3533515</v>
+        <v>3137873</v>
       </c>
       <c r="AZ89" s="15">
-        <v>2558451</v>
+        <v>2798988</v>
       </c>
       <c r="BA89" s="15">
-        <v>3137873</v>
+        <v>2739932</v>
       </c>
       <c r="BB89" s="15">
-        <v>2792315</v>
+        <v>3372675</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -12079,7 +12079,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12134,7 +12134,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -12189,7 +12189,7 @@
       <c r="BA92" s="1"/>
       <c r="BB92" s="1"/>
     </row>
-    <row r="93" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
         <v>89</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -12401,7 +12401,7 @@
       <c r="BA94" s="1"/>
       <c r="BB94" s="1"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>90</v>
       </c>
@@ -12458,7 +12458,7 @@
       <c r="BA95" s="9"/>
       <c r="BB95" s="9"/>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>56</v>
       </c>
@@ -12550,45 +12550,45 @@
       <c r="AF96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH96" s="11" t="s">
-        <v>58</v>
+      <c r="AG96" s="11">
+        <v>201048673</v>
+      </c>
+      <c r="AH96" s="11">
+        <v>209952922</v>
       </c>
       <c r="AI96" s="11">
-        <v>201048673</v>
+        <v>213197302</v>
       </c>
       <c r="AJ96" s="11">
-        <v>209952922</v>
+        <v>223184955</v>
       </c>
       <c r="AK96" s="11">
-        <v>213197302</v>
+        <v>225230769</v>
       </c>
       <c r="AL96" s="11">
-        <v>223184955</v>
+        <v>234831055</v>
       </c>
       <c r="AM96" s="11">
-        <v>225230769</v>
+        <v>236561063</v>
       </c>
       <c r="AN96" s="11">
-        <v>234831055</v>
+        <v>236025653</v>
       </c>
       <c r="AO96" s="11">
-        <v>236561063</v>
+        <v>228075738</v>
       </c>
       <c r="AP96" s="11">
-        <v>236025653</v>
+        <v>211011364</v>
       </c>
       <c r="AQ96" s="11">
-        <v>228075738</v>
-      </c>
-      <c r="AR96" s="11">
-        <v>211011364</v>
-      </c>
-      <c r="AS96" s="11">
         <v>204864929</v>
       </c>
+      <c r="AR96" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS96" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT96" s="11" t="s">
         <v>58</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
         <v>59</v>
       </c>
@@ -12685,36 +12685,36 @@
       <c r="X97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z97" s="13" t="s">
-        <v>58</v>
+      <c r="Y97" s="13">
+        <v>157410256</v>
+      </c>
+      <c r="Z97" s="13">
+        <v>189738248</v>
       </c>
       <c r="AA97" s="13">
-        <v>157410256</v>
+        <v>190787206</v>
       </c>
       <c r="AB97" s="13">
-        <v>189738248</v>
+        <v>160457143</v>
       </c>
       <c r="AC97" s="13">
-        <v>190787206</v>
+        <v>176735225</v>
       </c>
       <c r="AD97" s="13">
-        <v>160457143</v>
+        <v>192494521</v>
       </c>
       <c r="AE97" s="13">
-        <v>176735225</v>
+        <v>177480447</v>
       </c>
       <c r="AF97" s="13">
-        <v>192494521</v>
-      </c>
-      <c r="AG97" s="13">
-        <v>177480447</v>
-      </c>
-      <c r="AH97" s="13">
         <v>201213190</v>
       </c>
+      <c r="AG97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH97" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI97" s="13" t="s">
         <v>58</v>
       </c>
@@ -12742,8 +12742,8 @@
       <c r="AQ97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR97" s="13">
-        <v>0</v>
+      <c r="AR97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS97" s="13" t="s">
         <v>58</v>
@@ -12776,7 +12776,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>60</v>
       </c>
@@ -12838,42 +12838,42 @@
       <c r="V98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W98" s="11" t="s">
-        <v>58</v>
+      <c r="W98" s="11">
+        <v>56214286</v>
       </c>
       <c r="X98" s="11" t="s">
         <v>58</v>
       </c>
       <c r="Y98" s="11">
-        <v>56214286</v>
-      </c>
-      <c r="Z98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA98" s="11">
         <v>77000000</v>
       </c>
+      <c r="Z98" s="11">
+        <v>186000000</v>
+      </c>
+      <c r="AA98" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AB98" s="11">
-        <v>186000000</v>
-      </c>
-      <c r="AC98" s="11" t="s">
-        <v>58</v>
+        <v>120133333</v>
+      </c>
+      <c r="AC98" s="11">
+        <v>174380952</v>
       </c>
       <c r="AD98" s="11">
-        <v>120133333</v>
+        <v>199714286</v>
       </c>
       <c r="AE98" s="11">
-        <v>174380952</v>
+        <v>163050532</v>
       </c>
       <c r="AF98" s="11">
-        <v>199714286</v>
-      </c>
-      <c r="AG98" s="11">
-        <v>163050532</v>
-      </c>
-      <c r="AH98" s="11">
         <v>215500000</v>
       </c>
+      <c r="AG98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH98" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI98" s="11" t="s">
         <v>58</v>
       </c>
@@ -12901,8 +12901,8 @@
       <c r="AQ98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR98" s="11">
-        <v>0</v>
+      <c r="AR98" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS98" s="11" t="s">
         <v>58</v>
@@ -12935,7 +12935,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
         <v>61</v>
       </c>
@@ -12997,75 +12997,75 @@
       <c r="V99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W99" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X99" s="13" t="s">
-        <v>58</v>
+      <c r="W99" s="13">
+        <v>95715017</v>
+      </c>
+      <c r="X99" s="13">
+        <v>130116400</v>
       </c>
       <c r="Y99" s="13">
-        <v>95715017</v>
+        <v>154997158</v>
       </c>
       <c r="Z99" s="13">
-        <v>130116400</v>
+        <v>186419500</v>
       </c>
       <c r="AA99" s="13">
-        <v>154997158</v>
+        <v>192830483</v>
       </c>
       <c r="AB99" s="13">
-        <v>186419500</v>
+        <v>180002592</v>
       </c>
       <c r="AC99" s="13">
-        <v>192830483</v>
+        <v>216027391</v>
       </c>
       <c r="AD99" s="13">
-        <v>180002592</v>
+        <v>212878261</v>
       </c>
       <c r="AE99" s="13">
-        <v>216027391</v>
+        <v>217536139</v>
       </c>
       <c r="AF99" s="13">
-        <v>212878261</v>
+        <v>215862551</v>
       </c>
       <c r="AG99" s="13">
-        <v>217536139</v>
+        <v>224342165</v>
       </c>
       <c r="AH99" s="13">
-        <v>215862551</v>
+        <v>225361485</v>
       </c>
       <c r="AI99" s="13">
-        <v>224342165</v>
+        <v>221217955</v>
       </c>
       <c r="AJ99" s="13">
-        <v>225361485</v>
+        <v>232691336</v>
       </c>
       <c r="AK99" s="13">
-        <v>221217955</v>
+        <v>250278092</v>
       </c>
       <c r="AL99" s="13">
-        <v>232691336</v>
+        <v>244641239</v>
       </c>
       <c r="AM99" s="13">
-        <v>250278092</v>
+        <v>249781326</v>
       </c>
       <c r="AN99" s="13">
-        <v>244641239</v>
+        <v>240159040</v>
       </c>
       <c r="AO99" s="13">
-        <v>249781326</v>
+        <v>251866351</v>
       </c>
       <c r="AP99" s="13">
-        <v>240159040</v>
+        <v>229730607</v>
       </c>
       <c r="AQ99" s="13">
-        <v>251866351</v>
-      </c>
-      <c r="AR99" s="13">
-        <v>229730493</v>
-      </c>
-      <c r="AS99" s="13">
         <v>228406815</v>
       </c>
+      <c r="AR99" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS99" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT99" s="13" t="s">
         <v>58</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>62</v>
       </c>
@@ -13219,41 +13219,41 @@
       <c r="AQ100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR100" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS100" s="11" t="s">
-        <v>58</v>
+      <c r="AR100" s="11">
+        <v>260468684</v>
+      </c>
+      <c r="AS100" s="11">
+        <v>262364282</v>
       </c>
       <c r="AT100" s="11">
-        <v>254521725</v>
+        <v>254077532</v>
       </c>
       <c r="AU100" s="11">
-        <v>261998101</v>
+        <v>246581606</v>
       </c>
       <c r="AV100" s="11">
-        <v>254077532</v>
+        <v>228223942</v>
       </c>
       <c r="AW100" s="11">
-        <v>246629382</v>
+        <v>223269244</v>
       </c>
       <c r="AX100" s="11">
-        <v>228223942</v>
+        <v>232280285</v>
       </c>
       <c r="AY100" s="11">
-        <v>223269312</v>
+        <v>233271550</v>
       </c>
       <c r="AZ100" s="11">
-        <v>232280285</v>
+        <v>244981048</v>
       </c>
       <c r="BA100" s="11">
-        <v>233271550</v>
+        <v>255902357</v>
       </c>
       <c r="BB100" s="11">
-        <v>244335815</v>
+        <v>296705888</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>65</v>
       </c>
@@ -13378,41 +13378,41 @@
       <c r="AQ101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS101" s="13" t="s">
-        <v>58</v>
+      <c r="AR101" s="13">
+        <v>218941176</v>
+      </c>
+      <c r="AS101" s="13">
+        <v>234000000</v>
       </c>
       <c r="AT101" s="13">
-        <v>218941176</v>
+        <v>239380952</v>
       </c>
       <c r="AU101" s="13">
-        <v>234000000</v>
+        <v>246720238</v>
       </c>
       <c r="AV101" s="13">
-        <v>239380952</v>
+        <v>246250000</v>
       </c>
       <c r="AW101" s="13">
-        <v>246720238</v>
-      </c>
-      <c r="AX101" s="13">
-        <v>246250000</v>
-      </c>
-      <c r="AY101" s="13">
         <v>205614943</v>
       </c>
+      <c r="AX101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY101" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA101" s="13" t="s">
-        <v>58</v>
+      <c r="BA101" s="13">
+        <v>218608696</v>
       </c>
       <c r="BB101" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
         <v>92</v>
       </c>
@@ -13469,7 +13469,7 @@
       <c r="BA102" s="9"/>
       <c r="BB102" s="9"/>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>59</v>
       </c>
@@ -13531,21 +13531,21 @@
       <c r="V103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X103" s="11" t="s">
-        <v>58</v>
+      <c r="W103" s="11">
+        <v>105364425</v>
+      </c>
+      <c r="X103" s="11">
+        <v>117020325</v>
       </c>
       <c r="Y103" s="11">
-        <v>105364425</v>
-      </c>
-      <c r="Z103" s="11">
-        <v>117020325</v>
-      </c>
-      <c r="AA103" s="11">
         <v>119144796</v>
       </c>
+      <c r="Z103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA103" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AB103" s="11" t="s">
         <v>58</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>61</v>
       </c>
@@ -13690,42 +13690,42 @@
       <c r="V104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X104" s="13" t="s">
-        <v>58</v>
+      <c r="W104" s="13">
+        <v>106734358</v>
+      </c>
+      <c r="X104" s="13">
+        <v>113315995</v>
       </c>
       <c r="Y104" s="13">
-        <v>106734358</v>
+        <v>118136951</v>
       </c>
       <c r="Z104" s="13">
-        <v>113315995</v>
+        <v>184779661</v>
       </c>
       <c r="AA104" s="13">
-        <v>118136951</v>
+        <v>204150000</v>
       </c>
       <c r="AB104" s="13">
-        <v>184779661</v>
-      </c>
-      <c r="AC104" s="13">
-        <v>204150000</v>
+        <v>140690909</v>
+      </c>
+      <c r="AC104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD104" s="13">
-        <v>140690909</v>
-      </c>
-      <c r="AE104" s="13" t="s">
-        <v>58</v>
+        <v>186280000</v>
+      </c>
+      <c r="AE104" s="13">
+        <v>190229299</v>
       </c>
       <c r="AF104" s="13">
-        <v>186280000</v>
-      </c>
-      <c r="AG104" s="13">
-        <v>190229299</v>
-      </c>
-      <c r="AH104" s="13">
         <v>208021739</v>
       </c>
+      <c r="AG104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH104" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI104" s="13" t="s">
         <v>58</v>
       </c>
@@ -13753,8 +13753,8 @@
       <c r="AQ104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR104" s="13">
-        <v>0</v>
+      <c r="AR104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS104" s="13" t="s">
         <v>58</v>
@@ -13787,7 +13787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>69</v>
       </c>
@@ -13912,41 +13912,41 @@
       <c r="AQ105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS105" s="11" t="s">
-        <v>58</v>
+      <c r="AR105" s="11">
+        <v>213968958</v>
+      </c>
+      <c r="AS105" s="11">
+        <v>223257400</v>
       </c>
       <c r="AT105" s="11">
-        <v>213771111</v>
+        <v>235356796</v>
       </c>
       <c r="AU105" s="11">
-        <v>223257400</v>
+        <v>230254822</v>
       </c>
       <c r="AV105" s="11">
-        <v>235356796</v>
+        <v>195519231</v>
       </c>
       <c r="AW105" s="11">
-        <v>230254822</v>
+        <v>188244748</v>
       </c>
       <c r="AX105" s="11">
-        <v>195519231</v>
+        <v>200824365</v>
       </c>
       <c r="AY105" s="11">
-        <v>188244748</v>
+        <v>213038071</v>
       </c>
       <c r="AZ105" s="11">
-        <v>200824365</v>
+        <v>214585982</v>
       </c>
       <c r="BA105" s="11">
-        <v>213038071</v>
+        <v>222701881</v>
       </c>
       <c r="BB105" s="11">
-        <v>214585982</v>
+        <v>249284000</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
         <v>93</v>
       </c>
@@ -14003,7 +14003,7 @@
       <c r="BA106" s="9"/>
       <c r="BB106" s="9"/>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>72</v>
       </c>
@@ -14065,101 +14065,101 @@
       <c r="V107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X107" s="11" t="s">
-        <v>58</v>
+      <c r="W107" s="11">
+        <v>1483654</v>
+      </c>
+      <c r="X107" s="11">
+        <v>250000</v>
       </c>
       <c r="Y107" s="11">
-        <v>1483654</v>
+        <v>390320</v>
       </c>
       <c r="Z107" s="11">
-        <v>250000</v>
+        <v>249631</v>
       </c>
       <c r="AA107" s="11">
-        <v>390320</v>
+        <v>1259615</v>
       </c>
       <c r="AB107" s="11">
-        <v>249631</v>
+        <v>9904459</v>
       </c>
       <c r="AC107" s="11">
-        <v>1259615</v>
+        <v>3028599</v>
       </c>
       <c r="AD107" s="11">
-        <v>9904459</v>
+        <v>6248538</v>
       </c>
       <c r="AE107" s="11">
-        <v>3028599</v>
+        <v>7261201</v>
       </c>
       <c r="AF107" s="11">
-        <v>6248538</v>
+        <v>249695</v>
       </c>
       <c r="AG107" s="11">
-        <v>7261201</v>
+        <v>510563</v>
       </c>
       <c r="AH107" s="11">
-        <v>249695</v>
+        <v>340390</v>
       </c>
       <c r="AI107" s="11">
-        <v>510563</v>
+        <v>2371639</v>
       </c>
       <c r="AJ107" s="11">
-        <v>340390</v>
+        <v>1926350</v>
       </c>
       <c r="AK107" s="11">
-        <v>2371639</v>
+        <v>343949</v>
       </c>
       <c r="AL107" s="11">
-        <v>1926350</v>
+        <v>298403</v>
       </c>
       <c r="AM107" s="11">
-        <v>343949</v>
+        <v>297389</v>
       </c>
       <c r="AN107" s="11">
-        <v>298403</v>
+        <v>3257697</v>
       </c>
       <c r="AO107" s="11">
-        <v>297389</v>
+        <v>297740</v>
       </c>
       <c r="AP107" s="11">
-        <v>3257697</v>
+        <v>3304511</v>
       </c>
       <c r="AQ107" s="11">
-        <v>297740</v>
+        <v>298326</v>
       </c>
       <c r="AR107" s="11">
-        <v>0</v>
+        <v>1001745</v>
       </c>
       <c r="AS107" s="11">
-        <v>298326</v>
+        <v>3649835</v>
       </c>
       <c r="AT107" s="11">
-        <v>1092593</v>
+        <v>3379592</v>
       </c>
       <c r="AU107" s="11">
-        <v>3649835</v>
+        <v>672434</v>
       </c>
       <c r="AV107" s="11">
-        <v>3379592</v>
+        <v>399870</v>
       </c>
       <c r="AW107" s="11">
-        <v>696050</v>
+        <v>4545922</v>
       </c>
       <c r="AX107" s="11">
-        <v>399870</v>
+        <v>2846260</v>
       </c>
       <c r="AY107" s="11">
-        <v>4545922</v>
+        <v>2886872</v>
       </c>
       <c r="AZ107" s="11">
-        <v>2846260</v>
+        <v>2580128</v>
       </c>
       <c r="BA107" s="11">
-        <v>2886872</v>
+        <v>4500000</v>
       </c>
       <c r="BB107" s="11">
-        <v>2580128</v>
+        <v>2569179</v>
       </c>
     </row>
   </sheetData>
